--- a/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9580360293600618</v>
+        <v>0.9580360293600602</v>
       </c>
       <c r="D2">
-        <v>0.9830848432005179</v>
+        <v>0.983084843200516</v>
       </c>
       <c r="E2">
-        <v>0.9663607836451211</v>
+        <v>0.9663607836451196</v>
       </c>
       <c r="F2">
-        <v>0.9540683865761347</v>
+        <v>0.9540683865761332</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02793938672673</v>
+        <v>1.027939386726729</v>
       </c>
       <c r="J2">
-        <v>0.9815486554396599</v>
+        <v>0.9815486554396583</v>
       </c>
       <c r="K2">
-        <v>0.9947849738110466</v>
+        <v>0.9947849738110448</v>
       </c>
       <c r="L2">
-        <v>0.9783095488258995</v>
+        <v>0.9783095488258979</v>
       </c>
       <c r="M2">
-        <v>0.9662070103670987</v>
+        <v>0.9662070103670972</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9733362412895405</v>
+        <v>0.9733362412895403</v>
       </c>
       <c r="D3">
-        <v>0.994804104953957</v>
+        <v>0.9948041049539572</v>
       </c>
       <c r="E3">
-        <v>0.9813036868506452</v>
+        <v>0.9813036868506451</v>
       </c>
       <c r="F3">
-        <v>0.9709750840139088</v>
+        <v>0.9709750840139091</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.03337177682953</v>
       </c>
       <c r="J3">
-        <v>0.9945811564041096</v>
+        <v>0.9945811564041095</v>
       </c>
       <c r="K3">
         <v>1.005503902784059</v>
@@ -486,7 +486,7 @@
         <v>0.9921815150888675</v>
       </c>
       <c r="M3">
-        <v>0.9819933272162245</v>
+        <v>0.9819933272162248</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9826023160119699</v>
+        <v>0.9826023160119661</v>
       </c>
       <c r="D4">
-        <v>1.001900464339179</v>
+        <v>1.001900464339176</v>
       </c>
       <c r="E4">
-        <v>0.9903601385880437</v>
+        <v>0.9903601385880398</v>
       </c>
       <c r="F4">
-        <v>0.9812229091234276</v>
+        <v>0.9812229091234234</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03663677386208</v>
+        <v>1.036636773862078</v>
       </c>
       <c r="J4">
-        <v>1.002461774924318</v>
+        <v>1.002461774924314</v>
       </c>
       <c r="K4">
-        <v>1.011976006420449</v>
+        <v>1.011976006420446</v>
       </c>
       <c r="L4">
-        <v>1.000576317688102</v>
+        <v>1.000576317688099</v>
       </c>
       <c r="M4">
-        <v>0.9915533675089719</v>
+        <v>0.9915533675089678</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9863641622086635</v>
+        <v>0.9863641622086662</v>
       </c>
       <c r="D5">
-        <v>1.004780802502496</v>
+        <v>1.004780802502498</v>
       </c>
       <c r="E5">
-        <v>0.9940383518922956</v>
+        <v>0.9940383518922984</v>
       </c>
       <c r="F5">
-        <v>0.9853856345648503</v>
+        <v>0.985385634564853</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037956191355087</v>
+        <v>1.037956191355088</v>
       </c>
       <c r="J5">
-        <v>1.005658158311261</v>
+        <v>1.005658158311264</v>
       </c>
       <c r="K5">
-        <v>1.014598706743839</v>
+        <v>1.014598706743841</v>
       </c>
       <c r="L5">
-        <v>1.003982843784802</v>
+        <v>1.003982843784805</v>
       </c>
       <c r="M5">
-        <v>0.9954345827458179</v>
+        <v>0.9954345827458205</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9869884188027641</v>
+        <v>0.9869884188027673</v>
       </c>
       <c r="D6">
-        <v>1.005258729624648</v>
+        <v>1.005258729624651</v>
       </c>
       <c r="E6">
-        <v>0.994648812691856</v>
+        <v>0.9946488126918592</v>
       </c>
       <c r="F6">
-        <v>0.9860765553552323</v>
+        <v>0.9860765553552358</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038174778101785</v>
+        <v>1.038174778101786</v>
       </c>
       <c r="J6">
-        <v>1.006188400853576</v>
+        <v>1.006188400853579</v>
       </c>
       <c r="K6">
-        <v>1.015033638572868</v>
+        <v>1.01503363857287</v>
       </c>
       <c r="L6">
-        <v>1.004548040514808</v>
+        <v>1.004548040514811</v>
       </c>
       <c r="M6">
-        <v>0.9960786525927678</v>
+        <v>0.9960786525927714</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9826530856714539</v>
+        <v>0.9826530856714516</v>
       </c>
       <c r="D7">
-        <v>1.001939340268041</v>
+        <v>1.001939340268039</v>
       </c>
       <c r="E7">
-        <v>0.9904097738704406</v>
+        <v>0.990409773870438</v>
       </c>
       <c r="F7">
-        <v>0.9812790796119659</v>
+        <v>0.9812790796119634</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03665460513026</v>
+        <v>1.036654605130259</v>
       </c>
       <c r="J7">
-        <v>1.002504925173975</v>
+        <v>1.002504925173973</v>
       </c>
       <c r="K7">
-        <v>1.012011421762363</v>
+        <v>1.012011421762361</v>
       </c>
       <c r="L7">
-        <v>1.000622298451615</v>
+        <v>1.000622298451613</v>
       </c>
       <c r="M7">
-        <v>0.991605747918521</v>
+        <v>0.9916057479185185</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9633503875808661</v>
+        <v>0.9633503875808688</v>
       </c>
       <c r="D8">
-        <v>0.9871553422081677</v>
+        <v>0.9871553422081697</v>
       </c>
       <c r="E8">
-        <v>0.9715494629342978</v>
+        <v>0.9715494629343007</v>
       </c>
       <c r="F8">
-        <v>0.9599389637105658</v>
+        <v>0.9599389637105684</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029831580784648</v>
+        <v>1.029831580784649</v>
       </c>
       <c r="J8">
-        <v>0.9860778987460511</v>
+        <v>0.9860778987460537</v>
       </c>
       <c r="K8">
-        <v>0.9985121602601075</v>
+        <v>0.9985121602601094</v>
       </c>
       <c r="L8">
-        <v>0.9831291226674852</v>
+        <v>0.9831291226674882</v>
       </c>
       <c r="M8">
-        <v>0.9716903952998213</v>
+        <v>0.9716903952998242</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9233756068413231</v>
+        <v>0.9233756068413219</v>
       </c>
       <c r="D9">
-        <v>0.9565562853869037</v>
+        <v>0.9565562853869023</v>
       </c>
       <c r="E9">
-        <v>0.9325610501957219</v>
+        <v>0.9325610501957206</v>
       </c>
       <c r="F9">
-        <v>0.9158093147622666</v>
+        <v>0.9158093147622651</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.01548857255528</v>
+        <v>1.015488572555279</v>
       </c>
       <c r="J9">
-        <v>0.9519579536723561</v>
+        <v>0.9519579536723551</v>
       </c>
       <c r="K9">
-        <v>0.9703958588585898</v>
+        <v>0.9703958588585886</v>
       </c>
       <c r="L9">
-        <v>0.946852036653023</v>
+        <v>0.9468520366530218</v>
       </c>
       <c r="M9">
-        <v>0.9304339353648776</v>
+        <v>0.9304339353648763</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8903978542263782</v>
+        <v>0.8903978542263759</v>
       </c>
       <c r="D10">
-        <v>0.9313840629164556</v>
+        <v>0.9313840629164534</v>
       </c>
       <c r="E10">
-        <v>0.9004692327935799</v>
+        <v>0.9004692327935777</v>
       </c>
       <c r="F10">
-        <v>0.8794173500347277</v>
+        <v>0.8794173500347251</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.003520607453369</v>
+        <v>1.003520607453368</v>
       </c>
       <c r="J10">
-        <v>0.9237529789065188</v>
+        <v>0.9237529789065165</v>
       </c>
       <c r="K10">
-        <v>0.9471135135582687</v>
+        <v>0.9471135135582666</v>
       </c>
       <c r="L10">
-        <v>0.9169025220929431</v>
+        <v>0.9169025220929408</v>
       </c>
       <c r="M10">
-        <v>0.8963682414311851</v>
+        <v>0.8963682414311824</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8736694474690814</v>
+        <v>0.8736694474690841</v>
       </c>
       <c r="D11">
-        <v>0.9186552286864056</v>
+        <v>0.9186552286864077</v>
       </c>
       <c r="E11">
-        <v>0.8842160711909497</v>
+        <v>0.8842160711909528</v>
       </c>
       <c r="F11">
-        <v>0.8609455265386431</v>
+        <v>0.8609455265386465</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9974239106695445</v>
+        <v>0.9974239106695458</v>
       </c>
       <c r="J11">
-        <v>0.9094380795728334</v>
+        <v>0.9094380795728361</v>
       </c>
       <c r="K11">
-        <v>0.9352935314599322</v>
+        <v>0.9352935314599345</v>
       </c>
       <c r="L11">
-        <v>0.9017103429866377</v>
+        <v>0.9017103429866405</v>
       </c>
       <c r="M11">
-        <v>0.8790712526601323</v>
+        <v>0.8790712526601354</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8669414823404487</v>
+        <v>0.8669414823404499</v>
       </c>
       <c r="D12">
-        <v>0.9135451937858285</v>
+        <v>0.9135451937858293</v>
       </c>
       <c r="E12">
-        <v>0.8776843038950941</v>
+        <v>0.8776843038950951</v>
       </c>
       <c r="F12">
-        <v>0.8535122815953429</v>
+        <v>0.8535122815953443</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9949690702539928</v>
+        <v>0.9949690702539929</v>
       </c>
       <c r="J12">
-        <v>0.9036806318392206</v>
+        <v>0.9036806318392218</v>
       </c>
       <c r="K12">
-        <v>0.9305399555480678</v>
+        <v>0.9305399555480685</v>
       </c>
       <c r="L12">
-        <v>0.8956010641511796</v>
+        <v>0.8956010641511807</v>
       </c>
       <c r="M12">
-        <v>0.872110636599953</v>
+        <v>0.8721106365999542</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8684113537371853</v>
+        <v>0.8684113537371877</v>
       </c>
       <c r="D13">
-        <v>0.9146611025727893</v>
+        <v>0.9146611025727914</v>
       </c>
       <c r="E13">
-        <v>0.8791110603325116</v>
+        <v>0.8791110603325143</v>
       </c>
       <c r="F13">
-        <v>0.8551364748668653</v>
+        <v>0.8551364748668683</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9955054861690118</v>
+        <v>0.9955054861690131</v>
       </c>
       <c r="J13">
-        <v>0.9049384579376611</v>
+        <v>0.9049384579376633</v>
       </c>
       <c r="K13">
-        <v>0.9315784267205875</v>
+        <v>0.9315784267205894</v>
       </c>
       <c r="L13">
-        <v>0.8969357145529282</v>
+        <v>0.8969357145529311</v>
       </c>
       <c r="M13">
-        <v>0.8736315467832417</v>
+        <v>0.8736315467832445</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8731249943281603</v>
+        <v>0.8731249943281582</v>
       </c>
       <c r="D14">
-        <v>0.9182414941970063</v>
+        <v>0.9182414941970044</v>
       </c>
       <c r="E14">
-        <v>0.8836873860356206</v>
+        <v>0.8836873860356185</v>
       </c>
       <c r="F14">
-        <v>0.8603440995767933</v>
+        <v>0.8603440995767913</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9972253032254074</v>
+        <v>0.9972253032254064</v>
       </c>
       <c r="J14">
-        <v>0.9089721602388273</v>
+        <v>0.9089721602388254</v>
       </c>
       <c r="K14">
-        <v>0.934908834572785</v>
+        <v>0.9349088345727833</v>
       </c>
       <c r="L14">
-        <v>0.9012159335485138</v>
+        <v>0.9012159335485117</v>
       </c>
       <c r="M14">
-        <v>0.8785080628736889</v>
+        <v>0.8785080628736869</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8759551094995559</v>
+        <v>0.8759551094995583</v>
       </c>
       <c r="D15">
-        <v>0.920392515849717</v>
+        <v>0.9203925158497193</v>
       </c>
       <c r="E15">
-        <v>0.886435746266182</v>
+        <v>0.8864357462661846</v>
       </c>
       <c r="F15">
-        <v>0.8634701900822621</v>
+        <v>0.8634701900822649</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9982575781422602</v>
+        <v>0.9982575781422611</v>
       </c>
       <c r="J15">
-        <v>0.9113940502464434</v>
+        <v>0.9113940502464455</v>
       </c>
       <c r="K15">
-        <v>0.9369085463653224</v>
+        <v>0.9369085463653241</v>
       </c>
       <c r="L15">
-        <v>0.9037859560219681</v>
+        <v>0.9037859560219706</v>
       </c>
       <c r="M15">
-        <v>0.8814354048571424</v>
+        <v>0.8814354048571451</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8914458833470162</v>
+        <v>0.8914458833470161</v>
       </c>
       <c r="D16">
-        <v>0.9321825362615724</v>
+        <v>0.9321825362615723</v>
       </c>
       <c r="E16">
         <v>0.9014880765750609</v>
       </c>
       <c r="F16">
-        <v>0.8805742188201165</v>
+        <v>0.8805742188201161</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.003902130085295</v>
       </c>
       <c r="J16">
-        <v>0.924649720569797</v>
+        <v>0.9246497205697968</v>
       </c>
       <c r="K16">
-        <v>0.9478539600462317</v>
+        <v>0.9478539600462313</v>
       </c>
       <c r="L16">
-        <v>0.9178543654105469</v>
+        <v>0.9178543654105467</v>
       </c>
       <c r="M16">
-        <v>0.8974514656772808</v>
+        <v>0.8974514656772805</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9004281253492372</v>
+        <v>0.9004281253492414</v>
       </c>
       <c r="D17">
-        <v>0.9390303792054114</v>
+        <v>0.9390303792054151</v>
       </c>
       <c r="E17">
-        <v>0.9102229871773704</v>
+        <v>0.9102229871773746</v>
       </c>
       <c r="F17">
-        <v>0.8904879372948726</v>
+        <v>0.8904879372948766</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.007169353190019</v>
+        <v>1.00716935319002</v>
       </c>
       <c r="J17">
-        <v>0.9323345988828634</v>
+        <v>0.9323345988828674</v>
       </c>
       <c r="K17">
-        <v>0.954199114520788</v>
+        <v>0.9541991145207916</v>
       </c>
       <c r="L17">
-        <v>0.926012299562585</v>
+        <v>0.9260122995625892</v>
       </c>
       <c r="M17">
-        <v>0.9067335054133188</v>
+        <v>0.9067335054133225</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9054438038278279</v>
+        <v>0.9054438038278269</v>
       </c>
       <c r="D18">
-        <v>0.9428574650279339</v>
+        <v>0.9428574650279334</v>
       </c>
       <c r="E18">
-        <v>0.9151027249372609</v>
+        <v>0.9151027249372595</v>
       </c>
       <c r="F18">
-        <v>0.8960229278409929</v>
+        <v>0.8960229278409915</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.008991439015146</v>
+        <v>1.008991439015145</v>
       </c>
       <c r="J18">
-        <v>0.9366250983965662</v>
+        <v>0.9366250983965653</v>
       </c>
       <c r="K18">
-        <v>0.9577412675471626</v>
+        <v>0.9577412675471617</v>
       </c>
       <c r="L18">
-        <v>0.9305676337968957</v>
+        <v>0.9305676337968943</v>
       </c>
       <c r="M18">
-        <v>0.9119152435351098</v>
+        <v>0.9119152435351084</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9071192884033001</v>
+        <v>0.9071192884033024</v>
       </c>
       <c r="D19">
-        <v>0.9441363854251381</v>
+        <v>0.94413638542514</v>
       </c>
       <c r="E19">
-        <v>0.9167331423409921</v>
+        <v>0.9167331423409942</v>
       </c>
       <c r="F19">
-        <v>0.8978717940651135</v>
+        <v>0.8978717940651157</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.009599689200254</v>
+        <v>1.009599689200255</v>
       </c>
       <c r="J19">
-        <v>0.9380581939234784</v>
+        <v>0.9380581939234806</v>
       </c>
       <c r="K19">
-        <v>0.9589243212174702</v>
+        <v>0.9589243212174721</v>
       </c>
       <c r="L19">
-        <v>0.9320893154624155</v>
+        <v>0.9320893154624175</v>
       </c>
       <c r="M19">
-        <v>0.9136460000042765</v>
+        <v>0.913646000004279</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8994883285368107</v>
+        <v>0.8994883285368117</v>
       </c>
       <c r="D20">
-        <v>0.9383135416475065</v>
+        <v>0.9383135416475072</v>
       </c>
       <c r="E20">
-        <v>0.9093088340488678</v>
+        <v>0.9093088340488685</v>
       </c>
       <c r="F20">
-        <v>0.8894507799145359</v>
+        <v>0.8894507799145371</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.006827748686604</v>
+        <v>1.006827748686605</v>
       </c>
       <c r="J20">
-        <v>0.9315306150993026</v>
+        <v>0.9315306150993032</v>
       </c>
       <c r="K20">
-        <v>0.9535353256660366</v>
+        <v>0.9535353256660372</v>
       </c>
       <c r="L20">
-        <v>0.9251587498957916</v>
+        <v>0.9251587498957923</v>
       </c>
       <c r="M20">
-        <v>0.905762490148413</v>
+        <v>0.9057624901484141</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8717527980618104</v>
+        <v>0.8717527980618137</v>
       </c>
       <c r="D21">
-        <v>0.9171989128822815</v>
+        <v>0.9171989128822844</v>
       </c>
       <c r="E21">
-        <v>0.8823550151121725</v>
+        <v>0.8823550151121757</v>
       </c>
       <c r="F21">
-        <v>0.8588282355887431</v>
+        <v>0.8588282355887465</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9967247089032526</v>
+        <v>0.9967247089032543</v>
       </c>
       <c r="J21">
-        <v>0.9077978959641355</v>
+        <v>0.9077978959641387</v>
       </c>
       <c r="K21">
-        <v>0.9339392872903177</v>
+        <v>0.9339392872903204</v>
       </c>
       <c r="L21">
-        <v>0.899969880180666</v>
+        <v>0.8999698801806693</v>
       </c>
       <c r="M21">
-        <v>0.8770885749121394</v>
+        <v>0.8770885749121426</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8511753595971538</v>
+        <v>0.8511753595971536</v>
       </c>
       <c r="D22">
-        <v>0.9015941370336475</v>
+        <v>0.9015941370336473</v>
       </c>
       <c r="E22">
-        <v>0.8623896095860664</v>
+        <v>0.8623896095860661</v>
       </c>
       <c r="F22">
-        <v>0.836081121129965</v>
+        <v>0.8360811211299644</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9892129942740092</v>
+        <v>0.9892129942740091</v>
       </c>
       <c r="J22">
-        <v>0.890190243223707</v>
+        <v>0.8901902432237067</v>
       </c>
       <c r="K22">
-        <v>0.9194042459429028</v>
+        <v>0.9194042459429024</v>
       </c>
       <c r="L22">
-        <v>0.8812878020525091</v>
+        <v>0.8812878020525089</v>
       </c>
       <c r="M22">
-        <v>0.8557890096808981</v>
+        <v>0.8557890096808975</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8624609283742504</v>
+        <v>0.8624609283742483</v>
       </c>
       <c r="D23">
-        <v>0.9101453587497614</v>
+        <v>0.9101453587497597</v>
       </c>
       <c r="E23">
-        <v>0.8733360487988707</v>
+        <v>0.8733360487988688</v>
       </c>
       <c r="F23">
-        <v>0.8485604259557825</v>
+        <v>0.8485604259557804</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9933336415683666</v>
+        <v>0.9933336415683657</v>
       </c>
       <c r="J23">
-        <v>0.8998465364435619</v>
+        <v>0.8998465364435602</v>
       </c>
       <c r="K23">
-        <v>0.9273746658286792</v>
+        <v>0.9273746658286777</v>
       </c>
       <c r="L23">
-        <v>0.8915329154219851</v>
+        <v>0.8915329154219832</v>
       </c>
       <c r="M23">
-        <v>0.8674737445880302</v>
+        <v>0.867473744588028</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8999136633203122</v>
+        <v>0.8999136633203114</v>
       </c>
       <c r="D24">
-        <v>0.938637959130701</v>
+        <v>0.9386379591307003</v>
       </c>
       <c r="E24">
-        <v>0.9097225562207274</v>
+        <v>0.9097225562207265</v>
       </c>
       <c r="F24">
-        <v>0.8899201807544337</v>
+        <v>0.8899201807544329</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.006982360006455</v>
       </c>
       <c r="J24">
-        <v>0.9318944857604481</v>
+        <v>0.9318944857604472</v>
       </c>
       <c r="K24">
-        <v>0.9538357474954904</v>
+        <v>0.9538357474954896</v>
       </c>
       <c r="L24">
-        <v>0.9255450510156522</v>
+        <v>0.9255450510156515</v>
       </c>
       <c r="M24">
-        <v>0.9062019579813573</v>
+        <v>0.9062019579813563</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9346038708997132</v>
+        <v>0.9346038708997164</v>
       </c>
       <c r="D25">
-        <v>0.9651447162159957</v>
+        <v>0.9651447162159984</v>
       </c>
       <c r="E25">
-        <v>0.9435026841426299</v>
+        <v>0.9435026841426336</v>
       </c>
       <c r="F25">
-        <v>0.9281996416982049</v>
+        <v>0.9281996416982081</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.019540041697756</v>
+        <v>1.019540041697757</v>
       </c>
       <c r="J25">
-        <v>0.9615519613505977</v>
+        <v>0.9615519613506009</v>
       </c>
       <c r="K25">
-        <v>0.978309340042582</v>
+        <v>0.9783093400425847</v>
       </c>
       <c r="L25">
-        <v>0.9570463023851471</v>
+        <v>0.9570463023851506</v>
       </c>
       <c r="M25">
-        <v>0.9420251805777383</v>
+        <v>0.9420251805777415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9580360293600602</v>
+        <v>0.9580360293600618</v>
       </c>
       <c r="D2">
-        <v>0.983084843200516</v>
+        <v>0.9830848432005179</v>
       </c>
       <c r="E2">
-        <v>0.9663607836451196</v>
+        <v>0.9663607836451211</v>
       </c>
       <c r="F2">
-        <v>0.9540683865761332</v>
+        <v>0.9540683865761347</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027939386726729</v>
+        <v>1.02793938672673</v>
       </c>
       <c r="J2">
-        <v>0.9815486554396583</v>
+        <v>0.9815486554396599</v>
       </c>
       <c r="K2">
-        <v>0.9947849738110448</v>
+        <v>0.9947849738110466</v>
       </c>
       <c r="L2">
-        <v>0.9783095488258979</v>
+        <v>0.9783095488258995</v>
       </c>
       <c r="M2">
-        <v>0.9662070103670972</v>
+        <v>0.9662070103670987</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9733362412895403</v>
+        <v>0.9733362412895405</v>
       </c>
       <c r="D3">
-        <v>0.9948041049539572</v>
+        <v>0.994804104953957</v>
       </c>
       <c r="E3">
-        <v>0.9813036868506451</v>
+        <v>0.9813036868506452</v>
       </c>
       <c r="F3">
-        <v>0.9709750840139091</v>
+        <v>0.9709750840139088</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.03337177682953</v>
       </c>
       <c r="J3">
-        <v>0.9945811564041095</v>
+        <v>0.9945811564041096</v>
       </c>
       <c r="K3">
         <v>1.005503902784059</v>
@@ -486,7 +486,7 @@
         <v>0.9921815150888675</v>
       </c>
       <c r="M3">
-        <v>0.9819933272162248</v>
+        <v>0.9819933272162245</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9826023160119661</v>
+        <v>0.9826023160119699</v>
       </c>
       <c r="D4">
-        <v>1.001900464339176</v>
+        <v>1.001900464339179</v>
       </c>
       <c r="E4">
-        <v>0.9903601385880398</v>
+        <v>0.9903601385880437</v>
       </c>
       <c r="F4">
-        <v>0.9812229091234234</v>
+        <v>0.9812229091234276</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036636773862078</v>
+        <v>1.03663677386208</v>
       </c>
       <c r="J4">
-        <v>1.002461774924314</v>
+        <v>1.002461774924318</v>
       </c>
       <c r="K4">
-        <v>1.011976006420446</v>
+        <v>1.011976006420449</v>
       </c>
       <c r="L4">
-        <v>1.000576317688099</v>
+        <v>1.000576317688102</v>
       </c>
       <c r="M4">
-        <v>0.9915533675089678</v>
+        <v>0.9915533675089719</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9863641622086662</v>
+        <v>0.9863641622086635</v>
       </c>
       <c r="D5">
-        <v>1.004780802502498</v>
+        <v>1.004780802502496</v>
       </c>
       <c r="E5">
-        <v>0.9940383518922984</v>
+        <v>0.9940383518922956</v>
       </c>
       <c r="F5">
-        <v>0.985385634564853</v>
+        <v>0.9853856345648503</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037956191355088</v>
+        <v>1.037956191355087</v>
       </c>
       <c r="J5">
-        <v>1.005658158311264</v>
+        <v>1.005658158311261</v>
       </c>
       <c r="K5">
-        <v>1.014598706743841</v>
+        <v>1.014598706743839</v>
       </c>
       <c r="L5">
-        <v>1.003982843784805</v>
+        <v>1.003982843784802</v>
       </c>
       <c r="M5">
-        <v>0.9954345827458205</v>
+        <v>0.9954345827458179</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9869884188027673</v>
+        <v>0.9869884188027641</v>
       </c>
       <c r="D6">
-        <v>1.005258729624651</v>
+        <v>1.005258729624648</v>
       </c>
       <c r="E6">
-        <v>0.9946488126918592</v>
+        <v>0.994648812691856</v>
       </c>
       <c r="F6">
-        <v>0.9860765553552358</v>
+        <v>0.9860765553552323</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038174778101786</v>
+        <v>1.038174778101785</v>
       </c>
       <c r="J6">
-        <v>1.006188400853579</v>
+        <v>1.006188400853576</v>
       </c>
       <c r="K6">
-        <v>1.01503363857287</v>
+        <v>1.015033638572868</v>
       </c>
       <c r="L6">
-        <v>1.004548040514811</v>
+        <v>1.004548040514808</v>
       </c>
       <c r="M6">
-        <v>0.9960786525927714</v>
+        <v>0.9960786525927678</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9826530856714516</v>
+        <v>0.9826530856714539</v>
       </c>
       <c r="D7">
-        <v>1.001939340268039</v>
+        <v>1.001939340268041</v>
       </c>
       <c r="E7">
-        <v>0.990409773870438</v>
+        <v>0.9904097738704406</v>
       </c>
       <c r="F7">
-        <v>0.9812790796119634</v>
+        <v>0.9812790796119659</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036654605130259</v>
+        <v>1.03665460513026</v>
       </c>
       <c r="J7">
-        <v>1.002504925173973</v>
+        <v>1.002504925173975</v>
       </c>
       <c r="K7">
-        <v>1.012011421762361</v>
+        <v>1.012011421762363</v>
       </c>
       <c r="L7">
-        <v>1.000622298451613</v>
+        <v>1.000622298451615</v>
       </c>
       <c r="M7">
-        <v>0.9916057479185185</v>
+        <v>0.991605747918521</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9633503875808688</v>
+        <v>0.9633503875808661</v>
       </c>
       <c r="D8">
-        <v>0.9871553422081697</v>
+        <v>0.9871553422081677</v>
       </c>
       <c r="E8">
-        <v>0.9715494629343007</v>
+        <v>0.9715494629342978</v>
       </c>
       <c r="F8">
-        <v>0.9599389637105684</v>
+        <v>0.9599389637105658</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029831580784649</v>
+        <v>1.029831580784648</v>
       </c>
       <c r="J8">
-        <v>0.9860778987460537</v>
+        <v>0.9860778987460511</v>
       </c>
       <c r="K8">
-        <v>0.9985121602601094</v>
+        <v>0.9985121602601075</v>
       </c>
       <c r="L8">
-        <v>0.9831291226674882</v>
+        <v>0.9831291226674852</v>
       </c>
       <c r="M8">
-        <v>0.9716903952998242</v>
+        <v>0.9716903952998213</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9233756068413219</v>
+        <v>0.9233756068413231</v>
       </c>
       <c r="D9">
-        <v>0.9565562853869023</v>
+        <v>0.9565562853869037</v>
       </c>
       <c r="E9">
-        <v>0.9325610501957206</v>
+        <v>0.9325610501957219</v>
       </c>
       <c r="F9">
-        <v>0.9158093147622651</v>
+        <v>0.9158093147622666</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015488572555279</v>
+        <v>1.01548857255528</v>
       </c>
       <c r="J9">
-        <v>0.9519579536723551</v>
+        <v>0.9519579536723561</v>
       </c>
       <c r="K9">
-        <v>0.9703958588585886</v>
+        <v>0.9703958588585898</v>
       </c>
       <c r="L9">
-        <v>0.9468520366530218</v>
+        <v>0.946852036653023</v>
       </c>
       <c r="M9">
-        <v>0.9304339353648763</v>
+        <v>0.9304339353648776</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8903978542263759</v>
+        <v>0.8903978542263782</v>
       </c>
       <c r="D10">
-        <v>0.9313840629164534</v>
+        <v>0.9313840629164556</v>
       </c>
       <c r="E10">
-        <v>0.9004692327935777</v>
+        <v>0.9004692327935799</v>
       </c>
       <c r="F10">
-        <v>0.8794173500347251</v>
+        <v>0.8794173500347277</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.003520607453368</v>
+        <v>1.003520607453369</v>
       </c>
       <c r="J10">
-        <v>0.9237529789065165</v>
+        <v>0.9237529789065188</v>
       </c>
       <c r="K10">
-        <v>0.9471135135582666</v>
+        <v>0.9471135135582687</v>
       </c>
       <c r="L10">
-        <v>0.9169025220929408</v>
+        <v>0.9169025220929431</v>
       </c>
       <c r="M10">
-        <v>0.8963682414311824</v>
+        <v>0.8963682414311851</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8736694474690841</v>
+        <v>0.8736694474690814</v>
       </c>
       <c r="D11">
-        <v>0.9186552286864077</v>
+        <v>0.9186552286864056</v>
       </c>
       <c r="E11">
-        <v>0.8842160711909528</v>
+        <v>0.8842160711909497</v>
       </c>
       <c r="F11">
-        <v>0.8609455265386465</v>
+        <v>0.8609455265386431</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9974239106695458</v>
+        <v>0.9974239106695445</v>
       </c>
       <c r="J11">
-        <v>0.9094380795728361</v>
+        <v>0.9094380795728334</v>
       </c>
       <c r="K11">
-        <v>0.9352935314599345</v>
+        <v>0.9352935314599322</v>
       </c>
       <c r="L11">
-        <v>0.9017103429866405</v>
+        <v>0.9017103429866377</v>
       </c>
       <c r="M11">
-        <v>0.8790712526601354</v>
+        <v>0.8790712526601323</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8669414823404499</v>
+        <v>0.8669414823404487</v>
       </c>
       <c r="D12">
-        <v>0.9135451937858293</v>
+        <v>0.9135451937858285</v>
       </c>
       <c r="E12">
-        <v>0.8776843038950951</v>
+        <v>0.8776843038950941</v>
       </c>
       <c r="F12">
-        <v>0.8535122815953443</v>
+        <v>0.8535122815953429</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9949690702539929</v>
+        <v>0.9949690702539928</v>
       </c>
       <c r="J12">
-        <v>0.9036806318392218</v>
+        <v>0.9036806318392206</v>
       </c>
       <c r="K12">
-        <v>0.9305399555480685</v>
+        <v>0.9305399555480678</v>
       </c>
       <c r="L12">
-        <v>0.8956010641511807</v>
+        <v>0.8956010641511796</v>
       </c>
       <c r="M12">
-        <v>0.8721106365999542</v>
+        <v>0.872110636599953</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8684113537371877</v>
+        <v>0.8684113537371853</v>
       </c>
       <c r="D13">
-        <v>0.9146611025727914</v>
+        <v>0.9146611025727893</v>
       </c>
       <c r="E13">
-        <v>0.8791110603325143</v>
+        <v>0.8791110603325116</v>
       </c>
       <c r="F13">
-        <v>0.8551364748668683</v>
+        <v>0.8551364748668653</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9955054861690131</v>
+        <v>0.9955054861690118</v>
       </c>
       <c r="J13">
-        <v>0.9049384579376633</v>
+        <v>0.9049384579376611</v>
       </c>
       <c r="K13">
-        <v>0.9315784267205894</v>
+        <v>0.9315784267205875</v>
       </c>
       <c r="L13">
-        <v>0.8969357145529311</v>
+        <v>0.8969357145529282</v>
       </c>
       <c r="M13">
-        <v>0.8736315467832445</v>
+        <v>0.8736315467832417</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8731249943281582</v>
+        <v>0.8731249943281603</v>
       </c>
       <c r="D14">
-        <v>0.9182414941970044</v>
+        <v>0.9182414941970063</v>
       </c>
       <c r="E14">
-        <v>0.8836873860356185</v>
+        <v>0.8836873860356206</v>
       </c>
       <c r="F14">
-        <v>0.8603440995767913</v>
+        <v>0.8603440995767933</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9972253032254064</v>
+        <v>0.9972253032254074</v>
       </c>
       <c r="J14">
-        <v>0.9089721602388254</v>
+        <v>0.9089721602388273</v>
       </c>
       <c r="K14">
-        <v>0.9349088345727833</v>
+        <v>0.934908834572785</v>
       </c>
       <c r="L14">
-        <v>0.9012159335485117</v>
+        <v>0.9012159335485138</v>
       </c>
       <c r="M14">
-        <v>0.8785080628736869</v>
+        <v>0.8785080628736889</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8759551094995583</v>
+        <v>0.8759551094995559</v>
       </c>
       <c r="D15">
-        <v>0.9203925158497193</v>
+        <v>0.920392515849717</v>
       </c>
       <c r="E15">
-        <v>0.8864357462661846</v>
+        <v>0.886435746266182</v>
       </c>
       <c r="F15">
-        <v>0.8634701900822649</v>
+        <v>0.8634701900822621</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9982575781422611</v>
+        <v>0.9982575781422602</v>
       </c>
       <c r="J15">
-        <v>0.9113940502464455</v>
+        <v>0.9113940502464434</v>
       </c>
       <c r="K15">
-        <v>0.9369085463653241</v>
+        <v>0.9369085463653224</v>
       </c>
       <c r="L15">
-        <v>0.9037859560219706</v>
+        <v>0.9037859560219681</v>
       </c>
       <c r="M15">
-        <v>0.8814354048571451</v>
+        <v>0.8814354048571424</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8914458833470161</v>
+        <v>0.8914458833470162</v>
       </c>
       <c r="D16">
-        <v>0.9321825362615723</v>
+        <v>0.9321825362615724</v>
       </c>
       <c r="E16">
         <v>0.9014880765750609</v>
       </c>
       <c r="F16">
-        <v>0.8805742188201161</v>
+        <v>0.8805742188201165</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.003902130085295</v>
       </c>
       <c r="J16">
-        <v>0.9246497205697968</v>
+        <v>0.924649720569797</v>
       </c>
       <c r="K16">
-        <v>0.9478539600462313</v>
+        <v>0.9478539600462317</v>
       </c>
       <c r="L16">
-        <v>0.9178543654105467</v>
+        <v>0.9178543654105469</v>
       </c>
       <c r="M16">
-        <v>0.8974514656772805</v>
+        <v>0.8974514656772808</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9004281253492414</v>
+        <v>0.9004281253492372</v>
       </c>
       <c r="D17">
-        <v>0.9390303792054151</v>
+        <v>0.9390303792054114</v>
       </c>
       <c r="E17">
-        <v>0.9102229871773746</v>
+        <v>0.9102229871773704</v>
       </c>
       <c r="F17">
-        <v>0.8904879372948766</v>
+        <v>0.8904879372948726</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.00716935319002</v>
+        <v>1.007169353190019</v>
       </c>
       <c r="J17">
-        <v>0.9323345988828674</v>
+        <v>0.9323345988828634</v>
       </c>
       <c r="K17">
-        <v>0.9541991145207916</v>
+        <v>0.954199114520788</v>
       </c>
       <c r="L17">
-        <v>0.9260122995625892</v>
+        <v>0.926012299562585</v>
       </c>
       <c r="M17">
-        <v>0.9067335054133225</v>
+        <v>0.9067335054133188</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9054438038278269</v>
+        <v>0.9054438038278279</v>
       </c>
       <c r="D18">
-        <v>0.9428574650279334</v>
+        <v>0.9428574650279339</v>
       </c>
       <c r="E18">
-        <v>0.9151027249372595</v>
+        <v>0.9151027249372609</v>
       </c>
       <c r="F18">
-        <v>0.8960229278409915</v>
+        <v>0.8960229278409929</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.008991439015145</v>
+        <v>1.008991439015146</v>
       </c>
       <c r="J18">
-        <v>0.9366250983965653</v>
+        <v>0.9366250983965662</v>
       </c>
       <c r="K18">
-        <v>0.9577412675471617</v>
+        <v>0.9577412675471626</v>
       </c>
       <c r="L18">
-        <v>0.9305676337968943</v>
+        <v>0.9305676337968957</v>
       </c>
       <c r="M18">
-        <v>0.9119152435351084</v>
+        <v>0.9119152435351098</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9071192884033024</v>
+        <v>0.9071192884033001</v>
       </c>
       <c r="D19">
-        <v>0.94413638542514</v>
+        <v>0.9441363854251381</v>
       </c>
       <c r="E19">
-        <v>0.9167331423409942</v>
+        <v>0.9167331423409921</v>
       </c>
       <c r="F19">
-        <v>0.8978717940651157</v>
+        <v>0.8978717940651135</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.009599689200255</v>
+        <v>1.009599689200254</v>
       </c>
       <c r="J19">
-        <v>0.9380581939234806</v>
+        <v>0.9380581939234784</v>
       </c>
       <c r="K19">
-        <v>0.9589243212174721</v>
+        <v>0.9589243212174702</v>
       </c>
       <c r="L19">
-        <v>0.9320893154624175</v>
+        <v>0.9320893154624155</v>
       </c>
       <c r="M19">
-        <v>0.913646000004279</v>
+        <v>0.9136460000042765</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8994883285368117</v>
+        <v>0.8994883285368107</v>
       </c>
       <c r="D20">
-        <v>0.9383135416475072</v>
+        <v>0.9383135416475065</v>
       </c>
       <c r="E20">
-        <v>0.9093088340488685</v>
+        <v>0.9093088340488678</v>
       </c>
       <c r="F20">
-        <v>0.8894507799145371</v>
+        <v>0.8894507799145359</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.006827748686605</v>
+        <v>1.006827748686604</v>
       </c>
       <c r="J20">
-        <v>0.9315306150993032</v>
+        <v>0.9315306150993026</v>
       </c>
       <c r="K20">
-        <v>0.9535353256660372</v>
+        <v>0.9535353256660366</v>
       </c>
       <c r="L20">
-        <v>0.9251587498957923</v>
+        <v>0.9251587498957916</v>
       </c>
       <c r="M20">
-        <v>0.9057624901484141</v>
+        <v>0.905762490148413</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.8717527980618137</v>
+        <v>0.8717527980618104</v>
       </c>
       <c r="D21">
-        <v>0.9171989128822844</v>
+        <v>0.9171989128822815</v>
       </c>
       <c r="E21">
-        <v>0.8823550151121757</v>
+        <v>0.8823550151121725</v>
       </c>
       <c r="F21">
-        <v>0.8588282355887465</v>
+        <v>0.8588282355887431</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9967247089032543</v>
+        <v>0.9967247089032526</v>
       </c>
       <c r="J21">
-        <v>0.9077978959641387</v>
+        <v>0.9077978959641355</v>
       </c>
       <c r="K21">
-        <v>0.9339392872903204</v>
+        <v>0.9339392872903177</v>
       </c>
       <c r="L21">
-        <v>0.8999698801806693</v>
+        <v>0.899969880180666</v>
       </c>
       <c r="M21">
-        <v>0.8770885749121426</v>
+        <v>0.8770885749121394</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8511753595971536</v>
+        <v>0.8511753595971538</v>
       </c>
       <c r="D22">
-        <v>0.9015941370336473</v>
+        <v>0.9015941370336475</v>
       </c>
       <c r="E22">
-        <v>0.8623896095860661</v>
+        <v>0.8623896095860664</v>
       </c>
       <c r="F22">
-        <v>0.8360811211299644</v>
+        <v>0.836081121129965</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9892129942740091</v>
+        <v>0.9892129942740092</v>
       </c>
       <c r="J22">
-        <v>0.8901902432237067</v>
+        <v>0.890190243223707</v>
       </c>
       <c r="K22">
-        <v>0.9194042459429024</v>
+        <v>0.9194042459429028</v>
       </c>
       <c r="L22">
-        <v>0.8812878020525089</v>
+        <v>0.8812878020525091</v>
       </c>
       <c r="M22">
-        <v>0.8557890096808975</v>
+        <v>0.8557890096808981</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8624609283742483</v>
+        <v>0.8624609283742504</v>
       </c>
       <c r="D23">
-        <v>0.9101453587497597</v>
+        <v>0.9101453587497614</v>
       </c>
       <c r="E23">
-        <v>0.8733360487988688</v>
+        <v>0.8733360487988707</v>
       </c>
       <c r="F23">
-        <v>0.8485604259557804</v>
+        <v>0.8485604259557825</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9933336415683657</v>
+        <v>0.9933336415683666</v>
       </c>
       <c r="J23">
-        <v>0.8998465364435602</v>
+        <v>0.8998465364435619</v>
       </c>
       <c r="K23">
-        <v>0.9273746658286777</v>
+        <v>0.9273746658286792</v>
       </c>
       <c r="L23">
-        <v>0.8915329154219832</v>
+        <v>0.8915329154219851</v>
       </c>
       <c r="M23">
-        <v>0.867473744588028</v>
+        <v>0.8674737445880302</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8999136633203114</v>
+        <v>0.8999136633203122</v>
       </c>
       <c r="D24">
-        <v>0.9386379591307003</v>
+        <v>0.938637959130701</v>
       </c>
       <c r="E24">
-        <v>0.9097225562207265</v>
+        <v>0.9097225562207274</v>
       </c>
       <c r="F24">
-        <v>0.8899201807544329</v>
+        <v>0.8899201807544337</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.006982360006455</v>
       </c>
       <c r="J24">
-        <v>0.9318944857604472</v>
+        <v>0.9318944857604481</v>
       </c>
       <c r="K24">
-        <v>0.9538357474954896</v>
+        <v>0.9538357474954904</v>
       </c>
       <c r="L24">
-        <v>0.9255450510156515</v>
+        <v>0.9255450510156522</v>
       </c>
       <c r="M24">
-        <v>0.9062019579813563</v>
+        <v>0.9062019579813573</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9346038708997164</v>
+        <v>0.9346038708997132</v>
       </c>
       <c r="D25">
-        <v>0.9651447162159984</v>
+        <v>0.9651447162159957</v>
       </c>
       <c r="E25">
-        <v>0.9435026841426336</v>
+        <v>0.9435026841426299</v>
       </c>
       <c r="F25">
-        <v>0.9281996416982081</v>
+        <v>0.9281996416982049</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.019540041697757</v>
+        <v>1.019540041697756</v>
       </c>
       <c r="J25">
-        <v>0.9615519613506009</v>
+        <v>0.9615519613505977</v>
       </c>
       <c r="K25">
-        <v>0.9783093400425847</v>
+        <v>0.978309340042582</v>
       </c>
       <c r="L25">
-        <v>0.9570463023851506</v>
+        <v>0.9570463023851471</v>
       </c>
       <c r="M25">
-        <v>0.9420251805777415</v>
+        <v>0.9420251805777383</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9580360293600618</v>
+        <v>0.9616721321462548</v>
       </c>
       <c r="D2">
-        <v>0.9830848432005179</v>
+        <v>0.9858217252419138</v>
       </c>
       <c r="E2">
-        <v>0.9663607836451211</v>
+        <v>0.9699886746247959</v>
       </c>
       <c r="F2">
-        <v>0.9540683865761347</v>
+        <v>0.957822717352244</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02793938672673</v>
+        <v>1.029326963307314</v>
       </c>
       <c r="J2">
-        <v>0.9815486554396599</v>
+        <v>0.9850629440000266</v>
       </c>
       <c r="K2">
-        <v>0.9947849738110466</v>
+        <v>0.9974821849675747</v>
       </c>
       <c r="L2">
-        <v>0.9783095488258995</v>
+        <v>0.9818825773226389</v>
       </c>
       <c r="M2">
-        <v>0.9662070103670987</v>
+        <v>0.9699026942147857</v>
+      </c>
+      <c r="N2">
+        <v>0.9864618463688056</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9733362412895405</v>
+        <v>0.9768950725526785</v>
       </c>
       <c r="D3">
-        <v>0.994804104953957</v>
+        <v>0.9974857059773202</v>
       </c>
       <c r="E3">
-        <v>0.9813036868506452</v>
+        <v>0.9848586442540413</v>
       </c>
       <c r="F3">
-        <v>0.9709750840139088</v>
+        <v>0.9746400925760595</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03337177682953</v>
+        <v>1.034733334419851</v>
       </c>
       <c r="J3">
-        <v>0.9945811564041096</v>
+        <v>0.9980360510119837</v>
       </c>
       <c r="K3">
-        <v>1.005503902784059</v>
+        <v>1.008150859074971</v>
       </c>
       <c r="L3">
-        <v>0.9921815150888675</v>
+        <v>0.9956889989851421</v>
       </c>
       <c r="M3">
-        <v>0.9819933272162245</v>
+        <v>0.9856080819773416</v>
+      </c>
+      <c r="N3">
+        <v>0.9994533766807556</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9826023160119699</v>
+        <v>0.9861200669956596</v>
       </c>
       <c r="D4">
-        <v>1.001900464339179</v>
+        <v>1.004552807533333</v>
       </c>
       <c r="E4">
-        <v>0.9903601385880437</v>
+        <v>0.9938763979259583</v>
       </c>
       <c r="F4">
-        <v>0.9812229091234276</v>
+        <v>0.9848401720234503</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03663677386208</v>
+        <v>1.037984708288816</v>
       </c>
       <c r="J4">
-        <v>1.002461774924318</v>
+        <v>1.005885612575482</v>
       </c>
       <c r="K4">
-        <v>1.011976006420449</v>
+        <v>1.014596593001993</v>
       </c>
       <c r="L4">
-        <v>1.000576317688102</v>
+        <v>1.004049295649467</v>
       </c>
       <c r="M4">
-        <v>0.9915533675089719</v>
+        <v>0.9951250731560065</v>
+      </c>
+      <c r="N4">
+        <v>1.007314085522031</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9863641622086635</v>
+        <v>0.9898663701048943</v>
       </c>
       <c r="D5">
-        <v>1.004780802502496</v>
+        <v>1.007422109272538</v>
       </c>
       <c r="E5">
-        <v>0.9940383518922956</v>
+        <v>0.9975399867652388</v>
       </c>
       <c r="F5">
-        <v>0.9853856345648503</v>
+        <v>0.9889847698978185</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037956191355087</v>
+        <v>1.039299022752812</v>
       </c>
       <c r="J5">
-        <v>1.005658158311261</v>
+        <v>1.009070365573411</v>
       </c>
       <c r="K5">
-        <v>1.014598706743839</v>
+        <v>1.017209399643973</v>
       </c>
       <c r="L5">
-        <v>1.003982843784802</v>
+        <v>1.007442844827657</v>
       </c>
       <c r="M5">
-        <v>0.9954345827458179</v>
+        <v>0.9989899933369156</v>
+      </c>
+      <c r="N5">
+        <v>1.010503361234514</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9869884188027641</v>
+        <v>0.9904881085267931</v>
       </c>
       <c r="D6">
-        <v>1.005258729624648</v>
+        <v>1.007898250404968</v>
       </c>
       <c r="E6">
-        <v>0.994648812691856</v>
+        <v>0.998148079222676</v>
       </c>
       <c r="F6">
-        <v>0.9860765553552323</v>
+        <v>0.9896727500686516</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038174778101785</v>
+        <v>1.039516785835564</v>
       </c>
       <c r="J6">
-        <v>1.006188400853576</v>
+        <v>1.009598730885303</v>
       </c>
       <c r="K6">
-        <v>1.015033638572868</v>
+        <v>1.01764273354465</v>
       </c>
       <c r="L6">
-        <v>1.004548040514808</v>
+        <v>1.008005943738668</v>
       </c>
       <c r="M6">
-        <v>0.9960786525927678</v>
+        <v>0.9996314227343728</v>
+      </c>
+      <c r="N6">
+        <v>1.011032476885753</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9826530856714539</v>
+        <v>0.9861706226334049</v>
       </c>
       <c r="D7">
-        <v>1.001939340268041</v>
+        <v>1.004591531355293</v>
       </c>
       <c r="E7">
-        <v>0.9904097738704406</v>
+        <v>0.9939258317659911</v>
       </c>
       <c r="F7">
-        <v>0.9812790796119659</v>
+        <v>0.9848960931600785</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03665460513026</v>
+        <v>1.038002469078104</v>
       </c>
       <c r="J7">
-        <v>1.002504925173975</v>
+        <v>1.00592860219184</v>
       </c>
       <c r="K7">
-        <v>1.012011421762363</v>
+        <v>1.014631871769433</v>
       </c>
       <c r="L7">
-        <v>1.000622298451615</v>
+        <v>1.004095097407234</v>
       </c>
       <c r="M7">
-        <v>0.991605747918521</v>
+        <v>0.9951772292198466</v>
+      </c>
+      <c r="N7">
+        <v>1.007357136188576</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9633503875808661</v>
+        <v>0.9669582404201983</v>
       </c>
       <c r="D8">
-        <v>0.9871553422081677</v>
+        <v>0.9898719842575476</v>
       </c>
       <c r="E8">
-        <v>0.9715494629342978</v>
+        <v>0.9751506712224099</v>
       </c>
       <c r="F8">
-        <v>0.9599389637105658</v>
+        <v>0.9636606996582181</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029831580784648</v>
+        <v>1.03120959629962</v>
       </c>
       <c r="J8">
-        <v>0.9860778987460511</v>
+        <v>0.9895703474077688</v>
       </c>
       <c r="K8">
-        <v>0.9985121602601075</v>
+        <v>1.001190916488616</v>
       </c>
       <c r="L8">
-        <v>0.9831291226674852</v>
+        <v>0.9866781060076457</v>
       </c>
       <c r="M8">
-        <v>0.9716903952998213</v>
+        <v>0.9753564968322223</v>
+      </c>
+      <c r="N8">
+        <v>0.9909756508063933</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9233756068413231</v>
+        <v>0.9272395648588152</v>
       </c>
       <c r="D9">
-        <v>0.9565562853869037</v>
+        <v>0.9594570935211519</v>
       </c>
       <c r="E9">
-        <v>0.9325610501957219</v>
+        <v>0.936404696546782</v>
       </c>
       <c r="F9">
-        <v>0.9158093147622666</v>
+        <v>0.9198249868997828</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.01548857255528</v>
+        <v>1.016954498404144</v>
       </c>
       <c r="J9">
-        <v>0.9519579536723561</v>
+        <v>0.9556519451386721</v>
       </c>
       <c r="K9">
-        <v>0.9703958588585898</v>
+        <v>0.9732440839763354</v>
       </c>
       <c r="L9">
-        <v>0.946852036653023</v>
+        <v>0.9506213360803693</v>
       </c>
       <c r="M9">
-        <v>0.9304339353648776</v>
+        <v>0.9343681717574689</v>
+      </c>
+      <c r="N9">
+        <v>0.9570090805155791</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8903978542263782</v>
+        <v>0.8945717300107326</v>
       </c>
       <c r="D10">
-        <v>0.9313840629164556</v>
+        <v>0.9345085561855929</v>
       </c>
       <c r="E10">
-        <v>0.9004692327935799</v>
+        <v>0.9046072526550367</v>
       </c>
       <c r="F10">
-        <v>0.8794173500347277</v>
+        <v>0.8837863845313257</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.003520607453369</v>
+        <v>1.00509479415917</v>
       </c>
       <c r="J10">
-        <v>0.9237529789065188</v>
+        <v>0.9276971853082998</v>
       </c>
       <c r="K10">
-        <v>0.9471135135582687</v>
+        <v>0.9501703076640551</v>
       </c>
       <c r="L10">
-        <v>0.9169025220929431</v>
+        <v>0.9209425943802519</v>
       </c>
       <c r="M10">
-        <v>0.8963682414311851</v>
+        <v>0.9006271183628874</v>
+      </c>
+      <c r="N10">
+        <v>0.929014621719792</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8736694474690814</v>
+        <v>0.8780500108223251</v>
       </c>
       <c r="D11">
-        <v>0.9186552286864056</v>
+        <v>0.9219289873771255</v>
       </c>
       <c r="E11">
-        <v>0.8842160711909497</v>
+        <v>0.8885507412671269</v>
       </c>
       <c r="F11">
-        <v>0.8609455265386431</v>
+        <v>0.8655497179865003</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9974239106695445</v>
+        <v>0.9990707627976653</v>
       </c>
       <c r="J11">
-        <v>0.9094380795728334</v>
+        <v>0.9135511768464419</v>
       </c>
       <c r="K11">
-        <v>0.9352935314599322</v>
+        <v>0.9384903757001049</v>
       </c>
       <c r="L11">
-        <v>0.9017103429866377</v>
+        <v>0.905932333398313</v>
       </c>
       <c r="M11">
-        <v>0.8790712526601323</v>
+        <v>0.8835468306690349</v>
+      </c>
+      <c r="N11">
+        <v>0.9148485243033483</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8669414823404487</v>
+        <v>0.8714173900496194</v>
       </c>
       <c r="D12">
-        <v>0.9135451937858285</v>
+        <v>0.9168878038425555</v>
       </c>
       <c r="E12">
-        <v>0.8776843038950941</v>
+        <v>0.8821097486524833</v>
       </c>
       <c r="F12">
-        <v>0.8535122815953429</v>
+        <v>0.8582248936016416</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9949690702539928</v>
+        <v>0.9966495125311969</v>
       </c>
       <c r="J12">
-        <v>0.9036806318392206</v>
+        <v>0.9078720025280157</v>
       </c>
       <c r="K12">
-        <v>0.9305399555480678</v>
+        <v>0.9338015584370287</v>
       </c>
       <c r="L12">
-        <v>0.8956010641511796</v>
+        <v>0.8999072151582652</v>
       </c>
       <c r="M12">
-        <v>0.872110636599953</v>
+        <v>0.8766862339687079</v>
+      </c>
+      <c r="N12">
+        <v>0.9091612849059795</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8684113537371853</v>
+        <v>0.872865762941651</v>
       </c>
       <c r="D13">
-        <v>0.9146611025727893</v>
+        <v>0.9179881884083032</v>
       </c>
       <c r="E13">
-        <v>0.8791110603325116</v>
+        <v>0.8835160341043261</v>
       </c>
       <c r="F13">
-        <v>0.8551364748668653</v>
+        <v>0.8598246418553785</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9955054861690118</v>
+        <v>0.9971783514129241</v>
       </c>
       <c r="J13">
-        <v>0.9049384579376611</v>
+        <v>0.9091121621879317</v>
       </c>
       <c r="K13">
-        <v>0.9315784267205875</v>
+        <v>0.9348254207450123</v>
       </c>
       <c r="L13">
-        <v>0.8969357145529282</v>
+        <v>0.9012228773876834</v>
       </c>
       <c r="M13">
-        <v>0.8736315467832417</v>
+        <v>0.878184588456097</v>
+      </c>
+      <c r="N13">
+        <v>0.910403205734861</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8731249943281603</v>
+        <v>0.8775129892932598</v>
       </c>
       <c r="D14">
-        <v>0.9182414941970063</v>
+        <v>0.9215206197150075</v>
       </c>
       <c r="E14">
-        <v>0.8836873860356206</v>
+        <v>0.8880291303216956</v>
       </c>
       <c r="F14">
-        <v>0.8603440995767933</v>
+        <v>0.8649567427571641</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9972253032254074</v>
+        <v>0.9988747722207334</v>
       </c>
       <c r="J14">
-        <v>0.9089721602388273</v>
+        <v>0.9130913512267957</v>
       </c>
       <c r="K14">
-        <v>0.934908834572785</v>
+        <v>0.9381107234491329</v>
       </c>
       <c r="L14">
-        <v>0.9012159335485138</v>
+        <v>0.9054444789922818</v>
       </c>
       <c r="M14">
-        <v>0.8785080628736889</v>
+        <v>0.882991435625049</v>
+      </c>
+      <c r="N14">
+        <v>0.9143880456785797</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8759551094995559</v>
+        <v>0.8803049947918851</v>
       </c>
       <c r="D15">
-        <v>0.920392515849717</v>
+        <v>0.9236441197311348</v>
       </c>
       <c r="E15">
-        <v>0.886435746266182</v>
+        <v>0.8907412159811237</v>
       </c>
       <c r="F15">
-        <v>0.8634701900822621</v>
+        <v>0.8680394904025205</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9982575781422602</v>
+        <v>0.999893630311591</v>
       </c>
       <c r="J15">
-        <v>0.9113940502464434</v>
+        <v>0.9154820063449397</v>
       </c>
       <c r="K15">
-        <v>0.9369085463653224</v>
+        <v>0.9400845718979621</v>
       </c>
       <c r="L15">
-        <v>0.9037859560219681</v>
+        <v>0.9079808962350996</v>
       </c>
       <c r="M15">
-        <v>0.8814354048571424</v>
+        <v>0.8858788080529099</v>
+      </c>
+      <c r="N15">
+        <v>0.9167820958012033</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8914458833470162</v>
+        <v>0.8956080850785166</v>
       </c>
       <c r="D16">
-        <v>0.9321825362615724</v>
+        <v>0.9352985992231815</v>
       </c>
       <c r="E16">
-        <v>0.9014880765750609</v>
+        <v>0.9056149956842313</v>
       </c>
       <c r="F16">
-        <v>0.8805742188201165</v>
+        <v>0.8849299635872906</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.003902130085295</v>
+        <v>1.005472220553282</v>
       </c>
       <c r="J16">
-        <v>0.924649720569797</v>
+        <v>0.9285844264132527</v>
       </c>
       <c r="K16">
-        <v>0.9478539600462317</v>
+        <v>0.9509028610325245</v>
       </c>
       <c r="L16">
-        <v>0.9178543654105469</v>
+        <v>0.9218841883178756</v>
       </c>
       <c r="M16">
-        <v>0.8974514656772808</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9016981078868123</v>
+      </c>
+      <c r="N16">
+        <v>0.9299031228088819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9004281253492372</v>
+        <v>0.9044956921881196</v>
       </c>
       <c r="D17">
-        <v>0.9390303792054114</v>
+        <v>0.9420781093360238</v>
       </c>
       <c r="E17">
-        <v>0.9102229871773704</v>
+        <v>0.9142599491721711</v>
       </c>
       <c r="F17">
-        <v>0.8904879372948726</v>
+        <v>0.8947359049020301</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.007169353190019</v>
+        <v>1.008706279646643</v>
       </c>
       <c r="J17">
-        <v>0.9323345988828634</v>
+        <v>0.9361924748466591</v>
       </c>
       <c r="K17">
-        <v>0.954199114520788</v>
+        <v>0.9571841170557824</v>
       </c>
       <c r="L17">
-        <v>0.926012299562585</v>
+        <v>0.929959159547714</v>
       </c>
       <c r="M17">
-        <v>0.9067335054133188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9108809864680643</v>
+      </c>
+      <c r="N17">
+        <v>0.9375219755437193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9054438038278279</v>
+        <v>0.909462469780985</v>
       </c>
       <c r="D18">
-        <v>0.9428574650279339</v>
+        <v>0.9458698928004026</v>
       </c>
       <c r="E18">
-        <v>0.9151027249372609</v>
+        <v>0.9190932266925187</v>
       </c>
       <c r="F18">
-        <v>0.8960229278409929</v>
+        <v>0.9002151653495503</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.008991439015146</v>
+        <v>1.010511262608076</v>
       </c>
       <c r="J18">
-        <v>0.9366250983965662</v>
+        <v>0.9404434183233672</v>
       </c>
       <c r="K18">
-        <v>0.9577412675471626</v>
+        <v>0.9606933208987093</v>
       </c>
       <c r="L18">
-        <v>0.9305676337968957</v>
+        <v>0.9344717196975922</v>
       </c>
       <c r="M18">
-        <v>0.9119152435351098</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9160114974820676</v>
+      </c>
+      <c r="N18">
+        <v>0.9417789558477543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9071192884033001</v>
+        <v>0.91112220571902</v>
       </c>
       <c r="D19">
-        <v>0.9441363854251381</v>
+        <v>0.947137445546207</v>
       </c>
       <c r="E19">
-        <v>0.9167331423409921</v>
+        <v>0.9207086852726484</v>
       </c>
       <c r="F19">
-        <v>0.8978717940651135</v>
+        <v>0.9020460768393486</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.009599689200254</v>
+        <v>1.011114010568306</v>
       </c>
       <c r="J19">
-        <v>0.9380581939234784</v>
+        <v>0.9418637982236192</v>
       </c>
       <c r="K19">
-        <v>0.9589243212174702</v>
+        <v>0.9618657747782823</v>
       </c>
       <c r="L19">
-        <v>0.9320893154624155</v>
+        <v>0.9359796413904564</v>
       </c>
       <c r="M19">
-        <v>0.9136460000042765</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9177257578919253</v>
+      </c>
+      <c r="N19">
+        <v>0.9432013528503843</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,75 +1159,81 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8994883285368107</v>
+        <v>0.9035653609629148</v>
       </c>
       <c r="D20">
-        <v>0.9383135416475065</v>
+        <v>0.9413681058512957</v>
       </c>
       <c r="E20">
-        <v>0.9093088340488678</v>
+        <v>0.9133547911586745</v>
       </c>
       <c r="F20">
-        <v>0.8894507799145359</v>
+        <v>0.8937095316894889</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.006827748686604</v>
+        <v>1.008367988598367</v>
       </c>
       <c r="J20">
-        <v>0.9315306150993026</v>
+        <v>0.9353961598566723</v>
       </c>
       <c r="K20">
-        <v>0.9535353256660366</v>
+        <v>0.9565267119285512</v>
       </c>
       <c r="L20">
-        <v>0.9251587498957916</v>
+        <v>0.9291138974940932</v>
       </c>
       <c r="M20">
-        <v>0.905762490148413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9099198880418135</v>
+      </c>
+      <c r="N20">
+        <v>0.936724529695108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8717527980618104</v>
+        <v>0.8761597393508002</v>
       </c>
       <c r="D21">
-        <v>0.9171989128822815</v>
+        <v>0.9204917205743819</v>
       </c>
       <c r="E21">
-        <v>0.8823550151121725</v>
+        <v>0.8867147955186065</v>
       </c>
       <c r="F21">
-        <v>0.8588282355887431</v>
+        <v>0.8634624250472177</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9967247089032526</v>
+        <v>0.9983808504616617</v>
       </c>
       <c r="J21">
-        <v>0.9077978959641355</v>
+        <v>0.9119326282015332</v>
       </c>
       <c r="K21">
-        <v>0.9339392872903177</v>
+        <v>0.93715403946173</v>
       </c>
       <c r="L21">
-        <v>0.899969880180666</v>
+        <v>0.9042151410297772</v>
       </c>
       <c r="M21">
-        <v>0.8770885749121394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8815918207292941</v>
+      </c>
+      <c r="N21">
+        <v>0.9132276771337138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8511753595971538</v>
+        <v>0.8559084815858879</v>
       </c>
       <c r="D22">
-        <v>0.9015941370336475</v>
+        <v>0.9051224473856726</v>
       </c>
       <c r="E22">
-        <v>0.8623896095860664</v>
+        <v>0.8670600846904476</v>
       </c>
       <c r="F22">
-        <v>0.836081121129965</v>
+        <v>0.8410861567811001</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9892129942740092</v>
+        <v>0.990984196645168</v>
       </c>
       <c r="J22">
-        <v>0.890190243223707</v>
+        <v>0.8945936319149125</v>
       </c>
       <c r="K22">
-        <v>0.9194042459429028</v>
+        <v>0.922840883706842</v>
       </c>
       <c r="L22">
-        <v>0.8812878020525091</v>
+        <v>0.8858215680091575</v>
       </c>
       <c r="M22">
-        <v>0.8557890096808981</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8606346047565614</v>
+      </c>
+      <c r="N22">
+        <v>0.8958640574835555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8624609283742504</v>
+        <v>0.8670048176960372</v>
       </c>
       <c r="D23">
-        <v>0.9101453587497614</v>
+        <v>0.9135370561325727</v>
       </c>
       <c r="E23">
-        <v>0.8733360487988707</v>
+        <v>0.8778262361155923</v>
       </c>
       <c r="F23">
-        <v>0.8485604259557825</v>
+        <v>0.8533503314257546</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9933336415683666</v>
+        <v>0.9950380538681265</v>
       </c>
       <c r="J23">
-        <v>0.8998465364435619</v>
+        <v>0.9040938315322689</v>
       </c>
       <c r="K23">
-        <v>0.9273746658286792</v>
+        <v>0.9306824879768814</v>
       </c>
       <c r="L23">
-        <v>0.8915329154219851</v>
+        <v>0.8958991502352129</v>
       </c>
       <c r="M23">
-        <v>0.8674737445880302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8721206781847411</v>
+      </c>
+      <c r="N23">
+        <v>0.9053777484740568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8999136633203122</v>
+        <v>0.9039863996573223</v>
       </c>
       <c r="D24">
-        <v>0.938637959130701</v>
+        <v>0.9416894215698847</v>
       </c>
       <c r="E24">
-        <v>0.9097225562207274</v>
+        <v>0.9137644306961318</v>
       </c>
       <c r="F24">
-        <v>0.8899201807544337</v>
+        <v>0.8941740381089238</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.006982360006455</v>
+        <v>1.008521095949711</v>
       </c>
       <c r="J24">
-        <v>0.9318944857604481</v>
+        <v>0.9357565494627964</v>
       </c>
       <c r="K24">
-        <v>0.9538357474954904</v>
+        <v>0.9568242361898746</v>
       </c>
       <c r="L24">
-        <v>0.9255450510156522</v>
+        <v>0.9294964368568058</v>
       </c>
       <c r="M24">
-        <v>0.9062019579813573</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9103548549391326</v>
+      </c>
+      <c r="N24">
+        <v>0.93708543109581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9346038708997132</v>
+        <v>0.9383848671247172</v>
       </c>
       <c r="D25">
-        <v>0.9651447162159957</v>
+        <v>0.9679857430334389</v>
       </c>
       <c r="E25">
-        <v>0.9435026841426299</v>
+        <v>0.9472676832423326</v>
       </c>
       <c r="F25">
-        <v>0.9281996416982049</v>
+        <v>0.9321204010188404</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.019540041697756</v>
+        <v>1.020977250270164</v>
       </c>
       <c r="J25">
-        <v>0.9615519613505977</v>
+        <v>0.9651799354213487</v>
       </c>
       <c r="K25">
-        <v>0.978309340042582</v>
+        <v>0.9811022383148957</v>
       </c>
       <c r="L25">
-        <v>0.9570463023851471</v>
+        <v>0.9607437534405007</v>
       </c>
       <c r="M25">
-        <v>0.9420251805777383</v>
+        <v>0.9458725589150415</v>
+      </c>
+      <c r="N25">
+        <v>0.9665506016373331</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.044139516150359</v>
+      </c>
+      <c r="D2">
+        <v>1.059554255770024</v>
+      </c>
+      <c r="E2">
+        <v>1.061851597094417</v>
+      </c>
+      <c r="F2">
+        <v>1.068603006009099</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.06478397181073</v>
+      </c>
+      <c r="J2">
+        <v>1.065075663001838</v>
+      </c>
+      <c r="K2">
+        <v>1.070241869767189</v>
+      </c>
+      <c r="L2">
+        <v>1.072511594334052</v>
+      </c>
+      <c r="M2">
+        <v>1.079182694572099</v>
+      </c>
+      <c r="N2">
+        <v>1.024548251028693</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.04951784710206</v>
+      </c>
+      <c r="D3">
+        <v>1.06383853295571</v>
+      </c>
+      <c r="E3">
+        <v>1.066752601210001</v>
+      </c>
+      <c r="F3">
+        <v>1.073447321985503</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.066738481966357</v>
+      </c>
+      <c r="J3">
+        <v>1.068743955617643</v>
+      </c>
+      <c r="K3">
+        <v>1.0737148979319</v>
+      </c>
+      <c r="L3">
+        <v>1.076597088082714</v>
+      </c>
+      <c r="M3">
+        <v>1.083219376212615</v>
+      </c>
+      <c r="N3">
+        <v>1.025838962637087</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.052921851209971</v>
+      </c>
+      <c r="D4">
+        <v>1.066552755723794</v>
+      </c>
+      <c r="E4">
+        <v>1.069859423402177</v>
+      </c>
+      <c r="F4">
+        <v>1.076518234026887</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.067966780078685</v>
+      </c>
+      <c r="J4">
+        <v>1.071062289282821</v>
+      </c>
+      <c r="K4">
+        <v>1.075909198939126</v>
+      </c>
+      <c r="L4">
+        <v>1.079181938203825</v>
+      </c>
+      <c r="M4">
+        <v>1.085773195090949</v>
+      </c>
+      <c r="N4">
+        <v>1.026653896227031</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.054335403433373</v>
+      </c>
+      <c r="D5">
+        <v>1.067680453373171</v>
+      </c>
+      <c r="E5">
+        <v>1.071150707370455</v>
+      </c>
+      <c r="F5">
+        <v>1.077794593473009</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.068474713758979</v>
+      </c>
+      <c r="J5">
+        <v>1.072024159522513</v>
+      </c>
+      <c r="K5">
+        <v>1.076819450022026</v>
+      </c>
+      <c r="L5">
+        <v>1.080255070591904</v>
+      </c>
+      <c r="M5">
+        <v>1.086833405068814</v>
+      </c>
+      <c r="N5">
+        <v>1.026991810446104</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.05457174001152</v>
+      </c>
+      <c r="D6">
+        <v>1.06786902987482</v>
+      </c>
+      <c r="E6">
+        <v>1.071366667358612</v>
+      </c>
+      <c r="F6">
+        <v>1.078008057313324</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.068559510579149</v>
+      </c>
+      <c r="J6">
+        <v>1.07218492716525</v>
+      </c>
+      <c r="K6">
+        <v>1.076971580467982</v>
+      </c>
+      <c r="L6">
+        <v>1.080434475008598</v>
+      </c>
+      <c r="M6">
+        <v>1.087010646714223</v>
+      </c>
+      <c r="N6">
+        <v>1.027048277619053</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.052940806948256</v>
+      </c>
+      <c r="D7">
+        <v>1.066567875907037</v>
+      </c>
+      <c r="E7">
+        <v>1.069876735071388</v>
+      </c>
+      <c r="F7">
+        <v>1.076535345613507</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.067973599939294</v>
+      </c>
+      <c r="J7">
+        <v>1.071075191349843</v>
+      </c>
+      <c r="K7">
+        <v>1.075921409247702</v>
+      </c>
+      <c r="L7">
+        <v>1.079196329976966</v>
+      </c>
+      <c r="M7">
+        <v>1.085787413722377</v>
+      </c>
+      <c r="N7">
+        <v>1.026658429649235</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.045973369234165</v>
+      </c>
+      <c r="D8">
+        <v>1.061014478031036</v>
+      </c>
+      <c r="E8">
+        <v>1.063521636308746</v>
+      </c>
+      <c r="F8">
+        <v>1.070253719843719</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.065452213092148</v>
+      </c>
+      <c r="J8">
+        <v>1.06632712753597</v>
+      </c>
+      <c r="K8">
+        <v>1.071426845237923</v>
+      </c>
+      <c r="L8">
+        <v>1.073904792524207</v>
+      </c>
+      <c r="M8">
+        <v>1.080559276053381</v>
+      </c>
+      <c r="N8">
+        <v>1.02498874525162</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.033077404261711</v>
+      </c>
+      <c r="D9">
+        <v>1.050759548073818</v>
+      </c>
+      <c r="E9">
+        <v>1.05180041586353</v>
+      </c>
+      <c r="F9">
+        <v>1.05866847475418</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.060717390491166</v>
+      </c>
+      <c r="J9">
+        <v>1.057513851091493</v>
+      </c>
+      <c r="K9">
+        <v>1.063079473507677</v>
+      </c>
+      <c r="L9">
+        <v>1.064105475525227</v>
+      </c>
+      <c r="M9">
+        <v>1.070876369766554</v>
+      </c>
+      <c r="N9">
+        <v>1.021883717194959</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.02401105100487</v>
+      </c>
+      <c r="D10">
+        <v>1.043569967489841</v>
+      </c>
+      <c r="E10">
+        <v>1.043591125235945</v>
+      </c>
+      <c r="F10">
+        <v>1.050555126108383</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.057345034853786</v>
+      </c>
+      <c r="J10">
+        <v>1.051303372188872</v>
+      </c>
+      <c r="K10">
+        <v>1.057194723356959</v>
+      </c>
+      <c r="L10">
+        <v>1.057215538959701</v>
+      </c>
+      <c r="M10">
+        <v>1.064067883891973</v>
+      </c>
+      <c r="N10">
+        <v>1.019692495275899</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>1.019960853347891</v>
+      </c>
+      <c r="D11">
+        <v>1.040363867065605</v>
+      </c>
+      <c r="E11">
+        <v>1.039931957339688</v>
+      </c>
+      <c r="F11">
+        <v>1.046938986491066</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.055828759994743</v>
+      </c>
+      <c r="J11">
+        <v>1.048526184718889</v>
+      </c>
+      <c r="K11">
+        <v>1.054562715522565</v>
+      </c>
+      <c r="L11">
+        <v>1.054138159230969</v>
+      </c>
+      <c r="M11">
+        <v>1.061026856602365</v>
+      </c>
+      <c r="N11">
+        <v>1.018712040635974</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>1.018436513233621</v>
+      </c>
+      <c r="D12">
+        <v>1.039158153289793</v>
+      </c>
+      <c r="E12">
+        <v>1.038556080639831</v>
+      </c>
+      <c r="F12">
+        <v>1.045579337150796</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.055256681509115</v>
+      </c>
+      <c r="J12">
+        <v>1.047480595259395</v>
+      </c>
+      <c r="K12">
+        <v>1.053571725179776</v>
+      </c>
+      <c r="L12">
+        <v>1.052980097652449</v>
+      </c>
+      <c r="M12">
+        <v>1.059882476967996</v>
+      </c>
+      <c r="N12">
+        <v>1.018342833385022</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>1.018764411428454</v>
+      </c>
+      <c r="D13">
+        <v>1.039417468412963</v>
+      </c>
+      <c r="E13">
+        <v>1.038851983476237</v>
+      </c>
+      <c r="F13">
+        <v>1.045871747718034</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.055379803138651</v>
+      </c>
+      <c r="J13">
+        <v>1.04770552560806</v>
+      </c>
+      <c r="K13">
+        <v>1.053784912505848</v>
+      </c>
+      <c r="L13">
+        <v>1.053229198586432</v>
+      </c>
+      <c r="M13">
+        <v>1.060128634700288</v>
+      </c>
+      <c r="N13">
+        <v>1.018422261445335</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>1.019835264657472</v>
+      </c>
+      <c r="D14">
+        <v>1.04026451003102</v>
+      </c>
+      <c r="E14">
+        <v>1.039818573665957</v>
+      </c>
+      <c r="F14">
+        <v>1.046826939050725</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.055781655413002</v>
+      </c>
+      <c r="J14">
+        <v>1.048440046772831</v>
+      </c>
+      <c r="K14">
+        <v>1.054481076715584</v>
+      </c>
+      <c r="L14">
+        <v>1.054042744453359</v>
+      </c>
+      <c r="M14">
+        <v>1.060932569027313</v>
+      </c>
+      <c r="N14">
+        <v>1.018681625945557</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>1.020492375167114</v>
+      </c>
+      <c r="D15">
+        <v>1.040784408977005</v>
+      </c>
+      <c r="E15">
+        <v>1.040411877732115</v>
+      </c>
+      <c r="F15">
+        <v>1.047413253018211</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.056028060893623</v>
+      </c>
+      <c r="J15">
+        <v>1.048890727020984</v>
+      </c>
+      <c r="K15">
+        <v>1.054908214762212</v>
+      </c>
+      <c r="L15">
+        <v>1.054541984105138</v>
+      </c>
+      <c r="M15">
+        <v>1.061425910925549</v>
+      </c>
+      <c r="N15">
+        <v>1.018840754992899</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.024277125858615</v>
+      </c>
+      <c r="D16">
+        <v>1.043780715442965</v>
+      </c>
+      <c r="E16">
+        <v>1.043831687105408</v>
+      </c>
+      <c r="F16">
+        <v>1.050792865419073</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.057444447126924</v>
+      </c>
+      <c r="J16">
+        <v>1.051485764243528</v>
+      </c>
+      <c r="K16">
+        <v>1.057367571764892</v>
+      </c>
+      <c r="L16">
+        <v>1.05741772201031</v>
+      </c>
+      <c r="M16">
+        <v>1.064267678534145</v>
+      </c>
+      <c r="N16">
+        <v>1.019756875710793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.026617058861334</v>
+      </c>
+      <c r="D17">
+        <v>1.045634745305601</v>
+      </c>
+      <c r="E17">
+        <v>1.045948186809117</v>
+      </c>
+      <c r="F17">
+        <v>1.052884562813963</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.058317603700122</v>
+      </c>
+      <c r="J17">
+        <v>1.05308945802459</v>
+      </c>
+      <c r="K17">
+        <v>1.058887299419199</v>
+      </c>
+      <c r="L17">
+        <v>1.059195843465177</v>
+      </c>
+      <c r="M17">
+        <v>1.066024792454156</v>
+      </c>
+      <c r="N17">
+        <v>1.020322879637104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.027969986732109</v>
+      </c>
+      <c r="D18">
+        <v>1.046707261336791</v>
+      </c>
+      <c r="E18">
+        <v>1.047172695124696</v>
+      </c>
+      <c r="F18">
+        <v>1.054094746053699</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.058821528032487</v>
+      </c>
+      <c r="J18">
+        <v>1.054016430954795</v>
+      </c>
+      <c r="K18">
+        <v>1.059765691781869</v>
+      </c>
+      <c r="L18">
+        <v>1.060223984772704</v>
+      </c>
+      <c r="M18">
+        <v>1.067040783817504</v>
+      </c>
+      <c r="N18">
+        <v>1.020649986537273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.028429314680934</v>
+      </c>
+      <c r="D19">
+        <v>1.047071475553664</v>
+      </c>
+      <c r="E19">
+        <v>1.047588551989468</v>
+      </c>
+      <c r="F19">
+        <v>1.054505741845582</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.058992454900399</v>
+      </c>
+      <c r="J19">
+        <v>1.054331097254487</v>
+      </c>
+      <c r="K19">
+        <v>1.060063858950129</v>
+      </c>
+      <c r="L19">
+        <v>1.060573051791867</v>
+      </c>
+      <c r="M19">
+        <v>1.067385725089134</v>
+      </c>
+      <c r="N19">
+        <v>1.020761014799944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.026367247200781</v>
+      </c>
+      <c r="D20">
+        <v>1.045436752851443</v>
+      </c>
+      <c r="E20">
+        <v>1.045722148789891</v>
+      </c>
+      <c r="F20">
+        <v>1.052661171041799</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.058224481165084</v>
+      </c>
+      <c r="J20">
+        <v>1.052918274827763</v>
+      </c>
+      <c r="K20">
+        <v>1.058725083732224</v>
+      </c>
+      <c r="L20">
+        <v>1.059006005507179</v>
+      </c>
+      <c r="M20">
+        <v>1.065837197598775</v>
+      </c>
+      <c r="N20">
+        <v>1.020262468428125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>1.019520485220399</v>
+      </c>
+      <c r="D21">
+        <v>1.040015493881711</v>
+      </c>
+      <c r="E21">
+        <v>1.03953440635874</v>
+      </c>
+      <c r="F21">
+        <v>1.04654612148243</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.055663568489108</v>
+      </c>
+      <c r="J21">
+        <v>1.048224142294157</v>
+      </c>
+      <c r="K21">
+        <v>1.054276448392308</v>
+      </c>
+      <c r="L21">
+        <v>1.053803596450456</v>
+      </c>
+      <c r="M21">
+        <v>1.06069624630353</v>
+      </c>
+      <c r="N21">
+        <v>1.018605390488382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>1.015099740192307</v>
+      </c>
+      <c r="D22">
+        <v>1.036520681184083</v>
+      </c>
+      <c r="E22">
+        <v>1.035546756381089</v>
+      </c>
+      <c r="F22">
+        <v>1.042605604667623</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.054001872007945</v>
+      </c>
+      <c r="J22">
+        <v>1.045191205658984</v>
+      </c>
+      <c r="K22">
+        <v>1.051401787835008</v>
+      </c>
+      <c r="L22">
+        <v>1.050445451448967</v>
+      </c>
+      <c r="M22">
+        <v>1.057377787206329</v>
+      </c>
+      <c r="N22">
+        <v>1.017534310021485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>1.017454684821922</v>
+      </c>
+      <c r="D23">
+        <v>1.038381828446372</v>
+      </c>
+      <c r="E23">
+        <v>1.037670251546173</v>
+      </c>
+      <c r="F23">
+        <v>1.044703970482652</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.054887814997501</v>
+      </c>
+      <c r="J23">
+        <v>1.046807035938125</v>
+      </c>
+      <c r="K23">
+        <v>1.052933322812953</v>
+      </c>
+      <c r="L23">
+        <v>1.05223423926387</v>
+      </c>
+      <c r="M23">
+        <v>1.059145431905642</v>
+      </c>
+      <c r="N23">
+        <v>1.018104974518473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.026480163069344</v>
+      </c>
+      <c r="D24">
+        <v>1.045526244585169</v>
+      </c>
+      <c r="E24">
+        <v>1.045824316502133</v>
+      </c>
+      <c r="F24">
+        <v>1.052762142592645</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.058266575801716</v>
+      </c>
+      <c r="J24">
+        <v>1.052995651152633</v>
+      </c>
+      <c r="K24">
+        <v>1.05879840680712</v>
+      </c>
+      <c r="L24">
+        <v>1.059091812879338</v>
+      </c>
+      <c r="M24">
+        <v>1.065921991091096</v>
+      </c>
+      <c r="N24">
+        <v>1.020289775008136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.036489844328095</v>
+      </c>
+      <c r="D25">
+        <v>1.053469985072197</v>
+      </c>
+      <c r="E25">
+        <v>1.054896879675265</v>
+      </c>
+      <c r="F25">
+        <v>1.061728924945724</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.061977966846045</v>
+      </c>
+      <c r="J25">
+        <v>1.059848631926964</v>
+      </c>
+      <c r="K25">
+        <v>1.065291313670725</v>
+      </c>
+      <c r="L25">
+        <v>1.066698831754097</v>
+      </c>
+      <c r="M25">
+        <v>1.073439007579005</v>
+      </c>
+      <c r="N25">
+        <v>1.022706891446409</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.044139516150359</v>
+        <v>1.072147192379749</v>
       </c>
       <c r="D2">
-        <v>1.059554255770024</v>
+        <v>1.076565569718524</v>
       </c>
       <c r="E2">
-        <v>1.061851597094417</v>
+        <v>1.085088929233691</v>
       </c>
       <c r="F2">
-        <v>1.068603006009099</v>
+        <v>1.090639572145684</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06478397181073</v>
+        <v>1.058197580245922</v>
       </c>
       <c r="J2">
-        <v>1.065075663001838</v>
+        <v>1.077068206821798</v>
       </c>
       <c r="K2">
-        <v>1.070241869767189</v>
+        <v>1.079249166068432</v>
       </c>
       <c r="L2">
-        <v>1.072511594334052</v>
+        <v>1.08775026307151</v>
       </c>
       <c r="M2">
-        <v>1.079182694572099</v>
+        <v>1.09328660986049</v>
       </c>
       <c r="N2">
-        <v>1.024548251028693</v>
+        <v>1.029217183606594</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.04951784710206</v>
+        <v>1.073276496742265</v>
       </c>
       <c r="D3">
-        <v>1.06383853295571</v>
+        <v>1.077484330725824</v>
       </c>
       <c r="E3">
-        <v>1.066752601210001</v>
+        <v>1.086166185623608</v>
       </c>
       <c r="F3">
-        <v>1.073447321985503</v>
+        <v>1.091702139955989</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066738481966357</v>
+        <v>1.05855015657959</v>
       </c>
       <c r="J3">
-        <v>1.068743955617643</v>
+        <v>1.077854854150782</v>
       </c>
       <c r="K3">
-        <v>1.0737148979319</v>
+        <v>1.079985207602885</v>
       </c>
       <c r="L3">
-        <v>1.076597088082714</v>
+        <v>1.088646024096477</v>
       </c>
       <c r="M3">
-        <v>1.083219376212615</v>
+        <v>1.09416875099252</v>
       </c>
       <c r="N3">
-        <v>1.025838962637087</v>
+        <v>1.029488737811342</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.052921851209971</v>
+        <v>1.074007473202132</v>
       </c>
       <c r="D4">
-        <v>1.066552755723794</v>
+        <v>1.078079010712378</v>
       </c>
       <c r="E4">
-        <v>1.069859423402177</v>
+        <v>1.086863782987127</v>
       </c>
       <c r="F4">
-        <v>1.076518234026887</v>
+        <v>1.092390201083886</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067966780078685</v>
+        <v>1.058777248032534</v>
       </c>
       <c r="J4">
-        <v>1.071062289282821</v>
+        <v>1.078363502905558</v>
       </c>
       <c r="K4">
-        <v>1.075909198939126</v>
+        <v>1.080461021134585</v>
       </c>
       <c r="L4">
-        <v>1.079181938203825</v>
+        <v>1.089225576487071</v>
       </c>
       <c r="M4">
-        <v>1.085773195090949</v>
+        <v>1.094739454712172</v>
       </c>
       <c r="N4">
-        <v>1.026653896227031</v>
+        <v>1.029664134866417</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.054335403433373</v>
+        <v>1.074314833834728</v>
       </c>
       <c r="D5">
-        <v>1.067680453373171</v>
+        <v>1.078329057073278</v>
       </c>
       <c r="E5">
-        <v>1.071150707370455</v>
+        <v>1.087157182227498</v>
       </c>
       <c r="F5">
-        <v>1.077794593473009</v>
+        <v>1.092679583630534</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068474713758979</v>
+        <v>1.058872466109228</v>
       </c>
       <c r="J5">
-        <v>1.072024159522513</v>
+        <v>1.078577251549527</v>
       </c>
       <c r="K5">
-        <v>1.076819450022026</v>
+        <v>1.080660944249173</v>
       </c>
       <c r="L5">
-        <v>1.080255070591904</v>
+        <v>1.089469204744816</v>
       </c>
       <c r="M5">
-        <v>1.086833405068814</v>
+        <v>1.094979354403455</v>
       </c>
       <c r="N5">
-        <v>1.026991810446104</v>
+        <v>1.029737795839479</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.05457174001152</v>
+        <v>1.074366444458669</v>
       </c>
       <c r="D6">
-        <v>1.06786902987482</v>
+        <v>1.078371043465952</v>
       </c>
       <c r="E6">
-        <v>1.071366667358612</v>
+        <v>1.087206452831616</v>
       </c>
       <c r="F6">
-        <v>1.078008057313324</v>
+        <v>1.092728179363118</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068559510579149</v>
+        <v>1.058888438913601</v>
       </c>
       <c r="J6">
-        <v>1.07218492716525</v>
+        <v>1.078613135768881</v>
       </c>
       <c r="K6">
-        <v>1.076971580467982</v>
+        <v>1.080694505832195</v>
       </c>
       <c r="L6">
-        <v>1.080434475008598</v>
+        <v>1.08951011008758</v>
       </c>
       <c r="M6">
-        <v>1.087010646714223</v>
+        <v>1.095019633198866</v>
       </c>
       <c r="N6">
-        <v>1.027048277619053</v>
+        <v>1.029750159383343</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.052940806948256</v>
+        <v>1.074011579940988</v>
       </c>
       <c r="D7">
-        <v>1.066567875907037</v>
+        <v>1.078082351675837</v>
       </c>
       <c r="E7">
-        <v>1.069876735071388</v>
+        <v>1.086867702894124</v>
       </c>
       <c r="F7">
-        <v>1.076535345613507</v>
+        <v>1.092394067349801</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067973599939294</v>
+        <v>1.058778521328098</v>
       </c>
       <c r="J7">
-        <v>1.071075191349843</v>
+        <v>1.078366359368379</v>
       </c>
       <c r="K7">
-        <v>1.075921409247702</v>
+        <v>1.080463692944988</v>
       </c>
       <c r="L7">
-        <v>1.079196329976966</v>
+        <v>1.089228831920974</v>
       </c>
       <c r="M7">
-        <v>1.085787413722377</v>
+        <v>1.094742660358574</v>
       </c>
       <c r="N7">
-        <v>1.026658429649235</v>
+        <v>1.02966511942654</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.045973369234165</v>
+        <v>1.072528796426957</v>
       </c>
       <c r="D8">
-        <v>1.061014478031036</v>
+        <v>1.076876031850346</v>
       </c>
       <c r="E8">
-        <v>1.063521636308746</v>
+        <v>1.085452881126007</v>
       </c>
       <c r="F8">
-        <v>1.070253719843719</v>
+        <v>1.090998566499567</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065452213092148</v>
+        <v>1.058316952251816</v>
       </c>
       <c r="J8">
-        <v>1.06632712753597</v>
+        <v>1.077334133482134</v>
       </c>
       <c r="K8">
-        <v>1.071426845237923</v>
+        <v>1.079498008826855</v>
       </c>
       <c r="L8">
-        <v>1.073904792524207</v>
+        <v>1.088053003119794</v>
       </c>
       <c r="M8">
-        <v>1.080559276053381</v>
+        <v>1.09358475436727</v>
       </c>
       <c r="N8">
-        <v>1.02498874525162</v>
+        <v>1.029309022108801</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.033077404261711</v>
+        <v>1.06991776900602</v>
       </c>
       <c r="D9">
-        <v>1.050759548073818</v>
+        <v>1.074751732411479</v>
       </c>
       <c r="E9">
-        <v>1.05180041586353</v>
+        <v>1.082963926468196</v>
       </c>
       <c r="F9">
-        <v>1.05866847475418</v>
+        <v>1.088543417366475</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060717390491166</v>
+        <v>1.057495575778267</v>
       </c>
       <c r="J9">
-        <v>1.057513851091493</v>
+        <v>1.075512425878499</v>
       </c>
       <c r="K9">
-        <v>1.063079473507677</v>
+        <v>1.077792871505257</v>
       </c>
       <c r="L9">
-        <v>1.064105475525227</v>
+        <v>1.085980546617515</v>
       </c>
       <c r="M9">
-        <v>1.070876369766554</v>
+        <v>1.091543608630348</v>
       </c>
       <c r="N9">
-        <v>1.021883717194959</v>
+        <v>1.028679113689714</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.02401105100487</v>
+        <v>1.068178282398255</v>
       </c>
       <c r="D10">
-        <v>1.043569967489841</v>
+        <v>1.073336478880764</v>
       </c>
       <c r="E10">
-        <v>1.043591125235945</v>
+        <v>1.081307409247907</v>
       </c>
       <c r="F10">
-        <v>1.050555126108383</v>
+        <v>1.08690927927142</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057345034853786</v>
+        <v>1.056942591208317</v>
       </c>
       <c r="J10">
-        <v>1.051303372188872</v>
+        <v>1.074296072288738</v>
       </c>
       <c r="K10">
-        <v>1.057194723356959</v>
+        <v>1.07665377610398</v>
       </c>
       <c r="L10">
-        <v>1.057215538959701</v>
+        <v>1.084598574307084</v>
       </c>
       <c r="M10">
-        <v>1.064067883891973</v>
+        <v>1.090182330138374</v>
       </c>
       <c r="N10">
-        <v>1.019692495275899</v>
+        <v>1.028257555166844</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.019960853347891</v>
+        <v>1.067425342250602</v>
       </c>
       <c r="D11">
-        <v>1.040363867065605</v>
+        <v>1.072723884478004</v>
       </c>
       <c r="E11">
-        <v>1.039931957339688</v>
+        <v>1.080590779034445</v>
       </c>
       <c r="F11">
-        <v>1.046938986491066</v>
+        <v>1.086202302835113</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055828759994743</v>
+        <v>1.056701861578635</v>
       </c>
       <c r="J11">
-        <v>1.048526184718889</v>
+        <v>1.07376892984533</v>
       </c>
       <c r="K11">
-        <v>1.054562715522565</v>
+        <v>1.076159980449362</v>
       </c>
       <c r="L11">
-        <v>1.054138159230969</v>
+        <v>1.08400008454144</v>
       </c>
       <c r="M11">
-        <v>1.061026856602365</v>
+        <v>1.089592758880156</v>
       </c>
       <c r="N11">
-        <v>1.018712040635974</v>
+        <v>1.028074632759425</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.018436513233621</v>
+        <v>1.067145706425516</v>
       </c>
       <c r="D12">
-        <v>1.039158153289793</v>
+        <v>1.072496372682541</v>
       </c>
       <c r="E12">
-        <v>1.038556080639831</v>
+        <v>1.08032468854973</v>
       </c>
       <c r="F12">
-        <v>1.045579337150796</v>
+        <v>1.085939792773892</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055256681509115</v>
+        <v>1.056612250924414</v>
       </c>
       <c r="J12">
-        <v>1.047480595259395</v>
+        <v>1.073573057334769</v>
       </c>
       <c r="K12">
-        <v>1.053571725179776</v>
+        <v>1.075976478516746</v>
       </c>
       <c r="L12">
-        <v>1.052980097652449</v>
+        <v>1.083777765579345</v>
       </c>
       <c r="M12">
-        <v>1.059882476967996</v>
+        <v>1.089373746377987</v>
       </c>
       <c r="N12">
-        <v>1.018342833385022</v>
+        <v>1.028006629485345</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.018764411428454</v>
+        <v>1.067205687476048</v>
       </c>
       <c r="D13">
-        <v>1.039417468412963</v>
+        <v>1.072545173239257</v>
       </c>
       <c r="E13">
-        <v>1.038851983476237</v>
+        <v>1.080381761435232</v>
       </c>
       <c r="F13">
-        <v>1.045871747718034</v>
+        <v>1.085996097890519</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055379803138651</v>
+        <v>1.056631481446894</v>
       </c>
       <c r="J13">
-        <v>1.04770552560806</v>
+        <v>1.073615075749223</v>
       </c>
       <c r="K13">
-        <v>1.053784912505848</v>
+        <v>1.076015844118353</v>
       </c>
       <c r="L13">
-        <v>1.053229198586432</v>
+        <v>1.083825454352594</v>
       </c>
       <c r="M13">
-        <v>1.060128634700288</v>
+        <v>1.089420726187371</v>
       </c>
       <c r="N13">
-        <v>1.018422261445335</v>
+        <v>1.028021219030666</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.019835264657472</v>
+        <v>1.067402226661114</v>
       </c>
       <c r="D14">
-        <v>1.04026451003102</v>
+        <v>1.072705077607792</v>
       </c>
       <c r="E14">
-        <v>1.039818573665957</v>
+        <v>1.080568781916144</v>
       </c>
       <c r="F14">
-        <v>1.046826939050725</v>
+        <v>1.086180601785884</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055781655413002</v>
+        <v>1.056694458270692</v>
       </c>
       <c r="J14">
-        <v>1.048440046772831</v>
+        <v>1.073752740357864</v>
       </c>
       <c r="K14">
-        <v>1.054481076715584</v>
+        <v>1.076144813841599</v>
       </c>
       <c r="L14">
-        <v>1.054042744453359</v>
+        <v>1.083981707857412</v>
       </c>
       <c r="M14">
-        <v>1.060932569027313</v>
+        <v>1.089574655636788</v>
       </c>
       <c r="N14">
-        <v>1.018681625945557</v>
+        <v>1.028069012765242</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.020492375167114</v>
+        <v>1.067523326174058</v>
       </c>
       <c r="D15">
-        <v>1.040784408977005</v>
+        <v>1.072803604346053</v>
       </c>
       <c r="E15">
-        <v>1.040411877732115</v>
+        <v>1.08068402437243</v>
       </c>
       <c r="F15">
-        <v>1.047413253018211</v>
+        <v>1.086294292974732</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056028060893623</v>
+        <v>1.056733234799607</v>
       </c>
       <c r="J15">
-        <v>1.048890727020984</v>
+        <v>1.073837551004705</v>
       </c>
       <c r="K15">
-        <v>1.054908214762212</v>
+        <v>1.07622426517807</v>
       </c>
       <c r="L15">
-        <v>1.054541984105138</v>
+        <v>1.08407797904167</v>
       </c>
       <c r="M15">
-        <v>1.061425910925549</v>
+        <v>1.089669494064271</v>
       </c>
       <c r="N15">
-        <v>1.018840754992899</v>
+        <v>1.028098452412291</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.024277125858615</v>
+        <v>1.068228258160294</v>
       </c>
       <c r="D16">
-        <v>1.043780715442965</v>
+        <v>1.073377139385571</v>
       </c>
       <c r="E16">
-        <v>1.043831687105408</v>
+        <v>1.081354983371335</v>
       </c>
       <c r="F16">
-        <v>1.050792865419073</v>
+        <v>1.08695621194169</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057444447126924</v>
+        <v>1.056958540587513</v>
       </c>
       <c r="J16">
-        <v>1.051485764243528</v>
+        <v>1.074331047426054</v>
       </c>
       <c r="K16">
-        <v>1.057367571764892</v>
+        <v>1.076686535889001</v>
       </c>
       <c r="L16">
-        <v>1.05741772201031</v>
+        <v>1.084638292259362</v>
       </c>
       <c r="M16">
-        <v>1.064267678534145</v>
+        <v>1.090221455316709</v>
       </c>
       <c r="N16">
-        <v>1.019756875710793</v>
+        <v>1.028269687022916</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.026617058861334</v>
+        <v>1.068670514869079</v>
       </c>
       <c r="D17">
-        <v>1.045634745305601</v>
+        <v>1.073736961609462</v>
       </c>
       <c r="E17">
-        <v>1.045948186809117</v>
+        <v>1.081776032842032</v>
       </c>
       <c r="F17">
-        <v>1.052884562813963</v>
+        <v>1.087371581107581</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058317603700122</v>
+        <v>1.057099525214808</v>
       </c>
       <c r="J17">
-        <v>1.05308945802459</v>
+        <v>1.074640483164839</v>
       </c>
       <c r="K17">
-        <v>1.058887299419199</v>
+        <v>1.076976356116873</v>
       </c>
       <c r="L17">
-        <v>1.059195843465177</v>
+        <v>1.084989738601374</v>
       </c>
       <c r="M17">
-        <v>1.066024792454156</v>
+        <v>1.09056765146619</v>
       </c>
       <c r="N17">
-        <v>1.020322879637104</v>
+        <v>1.028376994996275</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.027969986732109</v>
+        <v>1.068928501732629</v>
       </c>
       <c r="D18">
-        <v>1.046707261336791</v>
+        <v>1.073946861022113</v>
       </c>
       <c r="E18">
-        <v>1.047172695124696</v>
+        <v>1.082021686859765</v>
       </c>
       <c r="F18">
-        <v>1.054094746053699</v>
+        <v>1.087613918370201</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058821528032487</v>
+        <v>1.057181635314161</v>
       </c>
       <c r="J18">
-        <v>1.054016430954795</v>
+        <v>1.074820928073331</v>
       </c>
       <c r="K18">
-        <v>1.059765691781869</v>
+        <v>1.077145349345801</v>
       </c>
       <c r="L18">
-        <v>1.060223984772704</v>
+        <v>1.085194722960841</v>
       </c>
       <c r="M18">
-        <v>1.067040783817504</v>
+        <v>1.090769569416569</v>
       </c>
       <c r="N18">
-        <v>1.020649986537273</v>
+        <v>1.028439548791268</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.028429314680934</v>
+        <v>1.069016473020317</v>
       </c>
       <c r="D19">
-        <v>1.047071475553664</v>
+        <v>1.074018434891994</v>
       </c>
       <c r="E19">
-        <v>1.047588551989468</v>
+        <v>1.082105459220176</v>
       </c>
       <c r="F19">
-        <v>1.054505741845582</v>
+        <v>1.087696559202068</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058992454900399</v>
+        <v>1.057209611732223</v>
       </c>
       <c r="J19">
-        <v>1.054331097254487</v>
+        <v>1.074882447714948</v>
       </c>
       <c r="K19">
-        <v>1.060063858950129</v>
+        <v>1.077202962513284</v>
       </c>
       <c r="L19">
-        <v>1.060573051791867</v>
+        <v>1.085264615920649</v>
       </c>
       <c r="M19">
-        <v>1.067385725089134</v>
+        <v>1.090838416119937</v>
       </c>
       <c r="N19">
-        <v>1.020761014799944</v>
+        <v>1.028460871718977</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.026367247200781</v>
+        <v>1.068623062224859</v>
       </c>
       <c r="D20">
-        <v>1.045436752851443</v>
+        <v>1.07369835389731</v>
       </c>
       <c r="E20">
-        <v>1.045722148789891</v>
+        <v>1.081730851704884</v>
       </c>
       <c r="F20">
-        <v>1.052661171041799</v>
+        <v>1.087327009777948</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058224481165084</v>
+        <v>1.05708441170943</v>
       </c>
       <c r="J20">
-        <v>1.052918274827763</v>
+        <v>1.074607288162548</v>
       </c>
       <c r="K20">
-        <v>1.058725083732224</v>
+        <v>1.076945266736273</v>
       </c>
       <c r="L20">
-        <v>1.059006005507179</v>
+        <v>1.08495203259951</v>
       </c>
       <c r="M20">
-        <v>1.065837197598775</v>
+        <v>1.090530509179968</v>
       </c>
       <c r="N20">
-        <v>1.020262468428125</v>
+        <v>1.02836548570637</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.019520485220399</v>
+        <v>1.067344349680615</v>
       </c>
       <c r="D21">
-        <v>1.040015493881711</v>
+        <v>1.072657988844403</v>
       </c>
       <c r="E21">
-        <v>1.03953440635874</v>
+        <v>1.080513706345161</v>
       </c>
       <c r="F21">
-        <v>1.04654612148243</v>
+        <v>1.08612626743566</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055663568489108</v>
+        <v>1.056675918492894</v>
       </c>
       <c r="J21">
-        <v>1.048224142294157</v>
+        <v>1.073712203450073</v>
       </c>
       <c r="K21">
-        <v>1.054276448392308</v>
+        <v>1.076106837799084</v>
       </c>
       <c r="L21">
-        <v>1.053803596450456</v>
+        <v>1.083935695461159</v>
       </c>
       <c r="M21">
-        <v>1.06069624630353</v>
+        <v>1.089529327789653</v>
       </c>
       <c r="N21">
-        <v>1.018605390488382</v>
+        <v>1.028054940295247</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.015099740192307</v>
+        <v>1.066540601505886</v>
       </c>
       <c r="D22">
-        <v>1.036520681184083</v>
+        <v>1.072004061228333</v>
       </c>
       <c r="E22">
-        <v>1.035546756381089</v>
+        <v>1.079749004995344</v>
       </c>
       <c r="F22">
-        <v>1.042605604667623</v>
+        <v>1.085371847994411</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054001872007945</v>
+        <v>1.056417966192816</v>
       </c>
       <c r="J22">
-        <v>1.045191205658984</v>
+        <v>1.073149032681885</v>
       </c>
       <c r="K22">
-        <v>1.051401787835008</v>
+        <v>1.07557919679745</v>
       </c>
       <c r="L22">
-        <v>1.050445451448967</v>
+        <v>1.083296607407208</v>
       </c>
       <c r="M22">
-        <v>1.057377787206329</v>
+        <v>1.08889973249816</v>
       </c>
       <c r="N22">
-        <v>1.017534310021485</v>
+        <v>1.027859353992392</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.017454684821922</v>
+        <v>1.06696666214838</v>
       </c>
       <c r="D23">
-        <v>1.038381828446372</v>
+        <v>1.072350702497308</v>
       </c>
       <c r="E23">
-        <v>1.037670251546173</v>
+        <v>1.080154334032884</v>
       </c>
       <c r="F23">
-        <v>1.044703970482652</v>
+        <v>1.08577172934332</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054887814997501</v>
+        <v>1.056554817440911</v>
       </c>
       <c r="J23">
-        <v>1.046807035938125</v>
+        <v>1.07344761772538</v>
       </c>
       <c r="K23">
-        <v>1.052933322812953</v>
+        <v>1.075858955524065</v>
       </c>
       <c r="L23">
-        <v>1.05223423926387</v>
+        <v>1.083635407399164</v>
       </c>
       <c r="M23">
-        <v>1.059145431905642</v>
+        <v>1.089233503618261</v>
       </c>
       <c r="N23">
-        <v>1.018104974518473</v>
+        <v>1.027963069638007</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.026480163069344</v>
+        <v>1.068644503951574</v>
       </c>
       <c r="D24">
-        <v>1.045526244585169</v>
+        <v>1.073715798994972</v>
       </c>
       <c r="E24">
-        <v>1.045824316502133</v>
+        <v>1.081751266921187</v>
       </c>
       <c r="F24">
-        <v>1.052762142592645</v>
+        <v>1.087347149459402</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058266575801716</v>
+        <v>1.057091241234544</v>
       </c>
       <c r="J24">
-        <v>1.052995651152633</v>
+        <v>1.074622287690162</v>
       </c>
       <c r="K24">
-        <v>1.05879840680712</v>
+        <v>1.076959314855878</v>
       </c>
       <c r="L24">
-        <v>1.059091812879338</v>
+        <v>1.084969070344346</v>
       </c>
       <c r="M24">
-        <v>1.065921991091096</v>
+        <v>1.090547292218527</v>
       </c>
       <c r="N24">
-        <v>1.020289775008136</v>
+        <v>1.028370686373761</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.036489844328095</v>
+        <v>1.070592568801119</v>
       </c>
       <c r="D25">
-        <v>1.053469985072197</v>
+        <v>1.075300748816841</v>
       </c>
       <c r="E25">
-        <v>1.054896879675265</v>
+        <v>1.08360688995554</v>
       </c>
       <c r="F25">
-        <v>1.061728924945724</v>
+        <v>1.089177669417959</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061977966846045</v>
+        <v>1.057708873164795</v>
       </c>
       <c r="J25">
-        <v>1.059848631926964</v>
+        <v>1.075983712399563</v>
       </c>
       <c r="K25">
-        <v>1.065291313670725</v>
+        <v>1.078234102442033</v>
       </c>
       <c r="L25">
-        <v>1.066698831754097</v>
+        <v>1.086516385201526</v>
       </c>
       <c r="M25">
-        <v>1.073439007579005</v>
+        <v>1.092071384546279</v>
       </c>
       <c r="N25">
-        <v>1.022706891446409</v>
+        <v>1.028842246097705</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.072147192379749</v>
+        <v>1.044139516150358</v>
       </c>
       <c r="D2">
-        <v>1.076565569718524</v>
+        <v>1.059554255770023</v>
       </c>
       <c r="E2">
-        <v>1.085088929233691</v>
+        <v>1.061851597094416</v>
       </c>
       <c r="F2">
-        <v>1.090639572145684</v>
+        <v>1.068603006009098</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058197580245922</v>
+        <v>1.06478397181073</v>
       </c>
       <c r="J2">
-        <v>1.077068206821798</v>
+        <v>1.065075663001838</v>
       </c>
       <c r="K2">
-        <v>1.079249166068432</v>
+        <v>1.070241869767188</v>
       </c>
       <c r="L2">
-        <v>1.08775026307151</v>
+        <v>1.072511594334051</v>
       </c>
       <c r="M2">
-        <v>1.09328660986049</v>
+        <v>1.079182694572098</v>
       </c>
       <c r="N2">
-        <v>1.029217183606594</v>
+        <v>1.024548251028692</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.073276496742265</v>
+        <v>1.049517847102059</v>
       </c>
       <c r="D3">
-        <v>1.077484330725824</v>
+        <v>1.063838532955709</v>
       </c>
       <c r="E3">
-        <v>1.086166185623608</v>
+        <v>1.066752601209999</v>
       </c>
       <c r="F3">
-        <v>1.091702139955989</v>
+        <v>1.073447321985502</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05855015657959</v>
+        <v>1.066738481966356</v>
       </c>
       <c r="J3">
-        <v>1.077854854150782</v>
+        <v>1.068743955617641</v>
       </c>
       <c r="K3">
-        <v>1.079985207602885</v>
+        <v>1.073714897931899</v>
       </c>
       <c r="L3">
-        <v>1.088646024096477</v>
+        <v>1.076597088082713</v>
       </c>
       <c r="M3">
-        <v>1.09416875099252</v>
+        <v>1.083219376212614</v>
       </c>
       <c r="N3">
-        <v>1.029488737811342</v>
+        <v>1.025838962637087</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.074007473202132</v>
+        <v>1.052921851209971</v>
       </c>
       <c r="D4">
-        <v>1.078079010712378</v>
+        <v>1.066552755723794</v>
       </c>
       <c r="E4">
-        <v>1.086863782987127</v>
+        <v>1.069859423402178</v>
       </c>
       <c r="F4">
-        <v>1.092390201083886</v>
+        <v>1.076518234026888</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058777248032534</v>
+        <v>1.067966780078685</v>
       </c>
       <c r="J4">
-        <v>1.078363502905558</v>
+        <v>1.071062289282822</v>
       </c>
       <c r="K4">
-        <v>1.080461021134585</v>
+        <v>1.075909198939126</v>
       </c>
       <c r="L4">
-        <v>1.089225576487071</v>
+        <v>1.079181938203825</v>
       </c>
       <c r="M4">
-        <v>1.094739454712172</v>
+        <v>1.08577319509095</v>
       </c>
       <c r="N4">
-        <v>1.029664134866417</v>
+        <v>1.026653896227031</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.074314833834728</v>
+        <v>1.054335403433373</v>
       </c>
       <c r="D5">
-        <v>1.078329057073278</v>
+        <v>1.067680453373172</v>
       </c>
       <c r="E5">
-        <v>1.087157182227498</v>
+        <v>1.071150707370456</v>
       </c>
       <c r="F5">
-        <v>1.092679583630534</v>
+        <v>1.077794593473009</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058872466109228</v>
+        <v>1.068474713758979</v>
       </c>
       <c r="J5">
-        <v>1.078577251549527</v>
+        <v>1.072024159522513</v>
       </c>
       <c r="K5">
-        <v>1.080660944249173</v>
+        <v>1.076819450022027</v>
       </c>
       <c r="L5">
-        <v>1.089469204744816</v>
+        <v>1.080255070591904</v>
       </c>
       <c r="M5">
-        <v>1.094979354403455</v>
+        <v>1.086833405068814</v>
       </c>
       <c r="N5">
-        <v>1.029737795839479</v>
+        <v>1.026991810446104</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.074366444458669</v>
+        <v>1.054571740011519</v>
       </c>
       <c r="D6">
-        <v>1.078371043465952</v>
+        <v>1.06786902987482</v>
       </c>
       <c r="E6">
-        <v>1.087206452831616</v>
+        <v>1.071366667358612</v>
       </c>
       <c r="F6">
-        <v>1.092728179363118</v>
+        <v>1.078008057313323</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058888438913601</v>
+        <v>1.068559510579149</v>
       </c>
       <c r="J6">
-        <v>1.078613135768881</v>
+        <v>1.07218492716525</v>
       </c>
       <c r="K6">
-        <v>1.080694505832195</v>
+        <v>1.076971580467982</v>
       </c>
       <c r="L6">
-        <v>1.08951011008758</v>
+        <v>1.080434475008597</v>
       </c>
       <c r="M6">
-        <v>1.095019633198866</v>
+        <v>1.087010646714222</v>
       </c>
       <c r="N6">
-        <v>1.029750159383343</v>
+        <v>1.027048277619052</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.074011579940988</v>
+        <v>1.052940806948255</v>
       </c>
       <c r="D7">
-        <v>1.078082351675837</v>
+        <v>1.066567875907036</v>
       </c>
       <c r="E7">
-        <v>1.086867702894124</v>
+        <v>1.069876735071387</v>
       </c>
       <c r="F7">
-        <v>1.092394067349801</v>
+        <v>1.076535345613507</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058778521328098</v>
+        <v>1.067973599939293</v>
       </c>
       <c r="J7">
-        <v>1.078366359368379</v>
+        <v>1.071075191349842</v>
       </c>
       <c r="K7">
-        <v>1.080463692944988</v>
+        <v>1.075921409247701</v>
       </c>
       <c r="L7">
-        <v>1.089228831920974</v>
+        <v>1.079196329976965</v>
       </c>
       <c r="M7">
-        <v>1.094742660358574</v>
+        <v>1.085787413722376</v>
       </c>
       <c r="N7">
-        <v>1.02966511942654</v>
+        <v>1.026658429649235</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.072528796426957</v>
+        <v>1.045973369234165</v>
       </c>
       <c r="D8">
-        <v>1.076876031850346</v>
+        <v>1.061014478031035</v>
       </c>
       <c r="E8">
-        <v>1.085452881126007</v>
+        <v>1.063521636308744</v>
       </c>
       <c r="F8">
-        <v>1.090998566499567</v>
+        <v>1.070253719843719</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058316952251816</v>
+        <v>1.065452213092148</v>
       </c>
       <c r="J8">
-        <v>1.077334133482134</v>
+        <v>1.06632712753597</v>
       </c>
       <c r="K8">
-        <v>1.079498008826855</v>
+        <v>1.071426845237922</v>
       </c>
       <c r="L8">
-        <v>1.088053003119794</v>
+        <v>1.073904792524206</v>
       </c>
       <c r="M8">
-        <v>1.09358475436727</v>
+        <v>1.08055927605338</v>
       </c>
       <c r="N8">
-        <v>1.029309022108801</v>
+        <v>1.02498874525162</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.06991776900602</v>
+        <v>1.033077404261711</v>
       </c>
       <c r="D9">
-        <v>1.074751732411479</v>
+        <v>1.050759548073818</v>
       </c>
       <c r="E9">
-        <v>1.082963926468196</v>
+        <v>1.051800415863529</v>
       </c>
       <c r="F9">
-        <v>1.088543417366475</v>
+        <v>1.058668474754179</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057495575778267</v>
+        <v>1.060717390491166</v>
       </c>
       <c r="J9">
-        <v>1.075512425878499</v>
+        <v>1.057513851091492</v>
       </c>
       <c r="K9">
-        <v>1.077792871505257</v>
+        <v>1.063079473507676</v>
       </c>
       <c r="L9">
-        <v>1.085980546617515</v>
+        <v>1.064105475525226</v>
       </c>
       <c r="M9">
-        <v>1.091543608630348</v>
+        <v>1.070876369766553</v>
       </c>
       <c r="N9">
-        <v>1.028679113689714</v>
+        <v>1.021883717194959</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.068178282398255</v>
+        <v>1.024011051004871</v>
       </c>
       <c r="D10">
-        <v>1.073336478880764</v>
+        <v>1.043569967489841</v>
       </c>
       <c r="E10">
-        <v>1.081307409247907</v>
+        <v>1.043591125235946</v>
       </c>
       <c r="F10">
-        <v>1.08690927927142</v>
+        <v>1.050555126108383</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056942591208317</v>
+        <v>1.057345034853787</v>
       </c>
       <c r="J10">
-        <v>1.074296072288738</v>
+        <v>1.051303372188873</v>
       </c>
       <c r="K10">
-        <v>1.07665377610398</v>
+        <v>1.057194723356959</v>
       </c>
       <c r="L10">
-        <v>1.084598574307084</v>
+        <v>1.057215538959702</v>
       </c>
       <c r="M10">
-        <v>1.090182330138374</v>
+        <v>1.064067883891974</v>
       </c>
       <c r="N10">
-        <v>1.028257555166844</v>
+        <v>1.019692495275899</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.067425342250602</v>
+        <v>1.019960853347891</v>
       </c>
       <c r="D11">
-        <v>1.072723884478004</v>
+        <v>1.040363867065606</v>
       </c>
       <c r="E11">
-        <v>1.080590779034445</v>
+        <v>1.039931957339688</v>
       </c>
       <c r="F11">
-        <v>1.086202302835113</v>
+        <v>1.046938986491066</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056701861578635</v>
+        <v>1.055828759994744</v>
       </c>
       <c r="J11">
-        <v>1.07376892984533</v>
+        <v>1.04852618471889</v>
       </c>
       <c r="K11">
-        <v>1.076159980449362</v>
+        <v>1.054562715522566</v>
       </c>
       <c r="L11">
-        <v>1.08400008454144</v>
+        <v>1.054138159230969</v>
       </c>
       <c r="M11">
-        <v>1.089592758880156</v>
+        <v>1.061026856602365</v>
       </c>
       <c r="N11">
-        <v>1.028074632759425</v>
+        <v>1.018712040635974</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.067145706425516</v>
+        <v>1.018436513233622</v>
       </c>
       <c r="D12">
-        <v>1.072496372682541</v>
+        <v>1.039158153289794</v>
       </c>
       <c r="E12">
-        <v>1.08032468854973</v>
+        <v>1.038556080639832</v>
       </c>
       <c r="F12">
-        <v>1.085939792773892</v>
+        <v>1.045579337150796</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056612250924414</v>
+        <v>1.055256681509115</v>
       </c>
       <c r="J12">
-        <v>1.073573057334769</v>
+        <v>1.047480595259396</v>
       </c>
       <c r="K12">
-        <v>1.075976478516746</v>
+        <v>1.053571725179776</v>
       </c>
       <c r="L12">
-        <v>1.083777765579345</v>
+        <v>1.05298009765245</v>
       </c>
       <c r="M12">
-        <v>1.089373746377987</v>
+        <v>1.059882476967997</v>
       </c>
       <c r="N12">
-        <v>1.028006629485345</v>
+        <v>1.018342833385023</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.067205687476048</v>
+        <v>1.018764411428454</v>
       </c>
       <c r="D13">
-        <v>1.072545173239257</v>
+        <v>1.039417468412963</v>
       </c>
       <c r="E13">
-        <v>1.080381761435232</v>
+        <v>1.038851983476236</v>
       </c>
       <c r="F13">
-        <v>1.085996097890519</v>
+        <v>1.045871747718033</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056631481446894</v>
+        <v>1.05537980313865</v>
       </c>
       <c r="J13">
-        <v>1.073615075749223</v>
+        <v>1.047705525608059</v>
       </c>
       <c r="K13">
-        <v>1.076015844118353</v>
+        <v>1.053784912505848</v>
       </c>
       <c r="L13">
-        <v>1.083825454352594</v>
+        <v>1.053229198586431</v>
       </c>
       <c r="M13">
-        <v>1.089420726187371</v>
+        <v>1.060128634700287</v>
       </c>
       <c r="N13">
-        <v>1.028021219030666</v>
+        <v>1.018422261445335</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.067402226661114</v>
+        <v>1.019835264657472</v>
       </c>
       <c r="D14">
-        <v>1.072705077607792</v>
+        <v>1.04026451003102</v>
       </c>
       <c r="E14">
-        <v>1.080568781916144</v>
+        <v>1.039818573665958</v>
       </c>
       <c r="F14">
-        <v>1.086180601785884</v>
+        <v>1.046826939050726</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056694458270692</v>
+        <v>1.055781655413002</v>
       </c>
       <c r="J14">
-        <v>1.073752740357864</v>
+        <v>1.048440046772831</v>
       </c>
       <c r="K14">
-        <v>1.076144813841599</v>
+        <v>1.054481076715584</v>
       </c>
       <c r="L14">
-        <v>1.083981707857412</v>
+        <v>1.054042744453359</v>
       </c>
       <c r="M14">
-        <v>1.089574655636788</v>
+        <v>1.060932569027313</v>
       </c>
       <c r="N14">
-        <v>1.028069012765242</v>
+        <v>1.018681625945557</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.067523326174058</v>
+        <v>1.020492375167113</v>
       </c>
       <c r="D15">
-        <v>1.072803604346053</v>
+        <v>1.040784408977004</v>
       </c>
       <c r="E15">
-        <v>1.08068402437243</v>
+        <v>1.040411877732114</v>
       </c>
       <c r="F15">
-        <v>1.086294292974732</v>
+        <v>1.047413253018209</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056733234799607</v>
+        <v>1.056028060893622</v>
       </c>
       <c r="J15">
-        <v>1.073837551004705</v>
+        <v>1.048890727020982</v>
       </c>
       <c r="K15">
-        <v>1.07622426517807</v>
+        <v>1.054908214762211</v>
       </c>
       <c r="L15">
-        <v>1.08407797904167</v>
+        <v>1.054541984105137</v>
       </c>
       <c r="M15">
-        <v>1.089669494064271</v>
+        <v>1.061425910925547</v>
       </c>
       <c r="N15">
-        <v>1.028098452412291</v>
+        <v>1.018840754992899</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.068228258160294</v>
+        <v>1.024277125858614</v>
       </c>
       <c r="D16">
-        <v>1.073377139385571</v>
+        <v>1.043780715442963</v>
       </c>
       <c r="E16">
-        <v>1.081354983371335</v>
+        <v>1.043831687105407</v>
       </c>
       <c r="F16">
-        <v>1.08695621194169</v>
+        <v>1.050792865419072</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056958540587513</v>
+        <v>1.057444447126923</v>
       </c>
       <c r="J16">
-        <v>1.074331047426054</v>
+        <v>1.051485764243526</v>
       </c>
       <c r="K16">
-        <v>1.076686535889001</v>
+        <v>1.057367571764891</v>
       </c>
       <c r="L16">
-        <v>1.084638292259362</v>
+        <v>1.057417722010308</v>
       </c>
       <c r="M16">
-        <v>1.090221455316709</v>
+        <v>1.064267678534144</v>
       </c>
       <c r="N16">
-        <v>1.028269687022916</v>
+        <v>1.019756875710793</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.068670514869079</v>
+        <v>1.026617058861334</v>
       </c>
       <c r="D17">
-        <v>1.073736961609462</v>
+        <v>1.045634745305601</v>
       </c>
       <c r="E17">
-        <v>1.081776032842032</v>
+        <v>1.045948186809117</v>
       </c>
       <c r="F17">
-        <v>1.087371581107581</v>
+        <v>1.052884562813962</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057099525214808</v>
+        <v>1.058317603700122</v>
       </c>
       <c r="J17">
-        <v>1.074640483164839</v>
+        <v>1.053089458024589</v>
       </c>
       <c r="K17">
-        <v>1.076976356116873</v>
+        <v>1.058887299419199</v>
       </c>
       <c r="L17">
-        <v>1.084989738601374</v>
+        <v>1.059195843465177</v>
       </c>
       <c r="M17">
-        <v>1.09056765146619</v>
+        <v>1.066024792454156</v>
       </c>
       <c r="N17">
-        <v>1.028376994996275</v>
+        <v>1.020322879637104</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.068928501732629</v>
+        <v>1.027969986732109</v>
       </c>
       <c r="D18">
-        <v>1.073946861022113</v>
+        <v>1.046707261336791</v>
       </c>
       <c r="E18">
-        <v>1.082021686859765</v>
+        <v>1.047172695124696</v>
       </c>
       <c r="F18">
-        <v>1.087613918370201</v>
+        <v>1.054094746053699</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057181635314161</v>
+        <v>1.058821528032487</v>
       </c>
       <c r="J18">
-        <v>1.074820928073331</v>
+        <v>1.054016430954795</v>
       </c>
       <c r="K18">
-        <v>1.077145349345801</v>
+        <v>1.05976569178187</v>
       </c>
       <c r="L18">
-        <v>1.085194722960841</v>
+        <v>1.060223984772705</v>
       </c>
       <c r="M18">
-        <v>1.090769569416569</v>
+        <v>1.067040783817504</v>
       </c>
       <c r="N18">
-        <v>1.028439548791268</v>
+        <v>1.020649986537273</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.069016473020317</v>
+        <v>1.028429314680933</v>
       </c>
       <c r="D19">
-        <v>1.074018434891994</v>
+        <v>1.047071475553664</v>
       </c>
       <c r="E19">
-        <v>1.082105459220176</v>
+        <v>1.047588551989468</v>
       </c>
       <c r="F19">
-        <v>1.087696559202068</v>
+        <v>1.054505741845582</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057209611732223</v>
+        <v>1.058992454900398</v>
       </c>
       <c r="J19">
-        <v>1.074882447714948</v>
+        <v>1.054331097254486</v>
       </c>
       <c r="K19">
-        <v>1.077202962513284</v>
+        <v>1.060063858950129</v>
       </c>
       <c r="L19">
-        <v>1.085264615920649</v>
+        <v>1.060573051791866</v>
       </c>
       <c r="M19">
-        <v>1.090838416119937</v>
+        <v>1.067385725089133</v>
       </c>
       <c r="N19">
-        <v>1.028460871718977</v>
+        <v>1.020761014799944</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.068623062224859</v>
+        <v>1.026367247200782</v>
       </c>
       <c r="D20">
-        <v>1.07369835389731</v>
+        <v>1.045436752851443</v>
       </c>
       <c r="E20">
-        <v>1.081730851704884</v>
+        <v>1.045722148789892</v>
       </c>
       <c r="F20">
-        <v>1.087327009777948</v>
+        <v>1.0526611710418</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05708441170943</v>
+        <v>1.058224481165084</v>
       </c>
       <c r="J20">
-        <v>1.074607288162548</v>
+        <v>1.052918274827764</v>
       </c>
       <c r="K20">
-        <v>1.076945266736273</v>
+        <v>1.058725083732224</v>
       </c>
       <c r="L20">
-        <v>1.08495203259951</v>
+        <v>1.05900600550718</v>
       </c>
       <c r="M20">
-        <v>1.090530509179968</v>
+        <v>1.065837197598776</v>
       </c>
       <c r="N20">
-        <v>1.02836548570637</v>
+        <v>1.020262468428125</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.067344349680615</v>
+        <v>1.019520485220401</v>
       </c>
       <c r="D21">
-        <v>1.072657988844403</v>
+        <v>1.040015493881713</v>
       </c>
       <c r="E21">
-        <v>1.080513706345161</v>
+        <v>1.039534406358741</v>
       </c>
       <c r="F21">
-        <v>1.08612626743566</v>
+        <v>1.046546121482431</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056675918492894</v>
+        <v>1.055663568489109</v>
       </c>
       <c r="J21">
-        <v>1.073712203450073</v>
+        <v>1.048224142294158</v>
       </c>
       <c r="K21">
-        <v>1.076106837799084</v>
+        <v>1.054276448392309</v>
       </c>
       <c r="L21">
-        <v>1.083935695461159</v>
+        <v>1.053803596450457</v>
       </c>
       <c r="M21">
-        <v>1.089529327789653</v>
+        <v>1.060696246303531</v>
       </c>
       <c r="N21">
-        <v>1.028054940295247</v>
+        <v>1.018605390488383</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.066540601505886</v>
+        <v>1.015099740192305</v>
       </c>
       <c r="D22">
-        <v>1.072004061228333</v>
+        <v>1.036520681184081</v>
       </c>
       <c r="E22">
-        <v>1.079749004995344</v>
+        <v>1.035546756381087</v>
       </c>
       <c r="F22">
-        <v>1.085371847994411</v>
+        <v>1.042605604667621</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056417966192816</v>
+        <v>1.054001872007944</v>
       </c>
       <c r="J22">
-        <v>1.073149032681885</v>
+        <v>1.045191205658982</v>
       </c>
       <c r="K22">
-        <v>1.07557919679745</v>
+        <v>1.051401787835006</v>
       </c>
       <c r="L22">
-        <v>1.083296607407208</v>
+        <v>1.050445451448965</v>
       </c>
       <c r="M22">
-        <v>1.08889973249816</v>
+        <v>1.057377787206326</v>
       </c>
       <c r="N22">
-        <v>1.027859353992392</v>
+        <v>1.017534310021484</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.06696666214838</v>
+        <v>1.017454684821921</v>
       </c>
       <c r="D23">
-        <v>1.072350702497308</v>
+        <v>1.038381828446371</v>
       </c>
       <c r="E23">
-        <v>1.080154334032884</v>
+        <v>1.037670251546172</v>
       </c>
       <c r="F23">
-        <v>1.08577172934332</v>
+        <v>1.044703970482651</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056554817440911</v>
+        <v>1.054887814997501</v>
       </c>
       <c r="J23">
-        <v>1.07344761772538</v>
+        <v>1.046807035938124</v>
       </c>
       <c r="K23">
-        <v>1.075858955524065</v>
+        <v>1.052933322812952</v>
       </c>
       <c r="L23">
-        <v>1.083635407399164</v>
+        <v>1.052234239263869</v>
       </c>
       <c r="M23">
-        <v>1.089233503618261</v>
+        <v>1.059145431905641</v>
       </c>
       <c r="N23">
-        <v>1.027963069638007</v>
+        <v>1.018104974518472</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.068644503951574</v>
+        <v>1.026480163069343</v>
       </c>
       <c r="D24">
-        <v>1.073715798994972</v>
+        <v>1.045526244585168</v>
       </c>
       <c r="E24">
-        <v>1.081751266921187</v>
+        <v>1.045824316502133</v>
       </c>
       <c r="F24">
-        <v>1.087347149459402</v>
+        <v>1.052762142592644</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057091241234544</v>
+        <v>1.058266575801716</v>
       </c>
       <c r="J24">
-        <v>1.074622287690162</v>
+        <v>1.052995651152633</v>
       </c>
       <c r="K24">
-        <v>1.076959314855878</v>
+        <v>1.05879840680712</v>
       </c>
       <c r="L24">
-        <v>1.084969070344346</v>
+        <v>1.059091812879337</v>
       </c>
       <c r="M24">
-        <v>1.090547292218527</v>
+        <v>1.065921991091094</v>
       </c>
       <c r="N24">
-        <v>1.028370686373761</v>
+        <v>1.020289775008135</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.070592568801119</v>
+        <v>1.036489844328093</v>
       </c>
       <c r="D25">
-        <v>1.075300748816841</v>
+        <v>1.053469985072196</v>
       </c>
       <c r="E25">
-        <v>1.08360688995554</v>
+        <v>1.054896879675263</v>
       </c>
       <c r="F25">
-        <v>1.089177669417959</v>
+        <v>1.061728924945723</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057708873164795</v>
+        <v>1.061977966846044</v>
       </c>
       <c r="J25">
-        <v>1.075983712399563</v>
+        <v>1.059848631926963</v>
       </c>
       <c r="K25">
-        <v>1.078234102442033</v>
+        <v>1.065291313670724</v>
       </c>
       <c r="L25">
-        <v>1.086516385201526</v>
+        <v>1.066698831754095</v>
       </c>
       <c r="M25">
-        <v>1.092071384546279</v>
+        <v>1.073439007579004</v>
       </c>
       <c r="N25">
-        <v>1.028842246097705</v>
+        <v>1.022706891446408</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044139516150358</v>
+        <v>1.025467448809612</v>
       </c>
       <c r="D2">
-        <v>1.059554255770023</v>
+        <v>1.042230162936404</v>
       </c>
       <c r="E2">
-        <v>1.061851597094416</v>
+        <v>1.033480994474286</v>
       </c>
       <c r="F2">
-        <v>1.068603006009098</v>
+        <v>1.043765990399857</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06478397181073</v>
+        <v>1.05891054198338</v>
       </c>
       <c r="J2">
-        <v>1.065075663001838</v>
+        <v>1.046912228492112</v>
       </c>
       <c r="K2">
-        <v>1.070241869767188</v>
+        <v>1.053130920380139</v>
       </c>
       <c r="L2">
-        <v>1.072511594334051</v>
+        <v>1.044492789042205</v>
       </c>
       <c r="M2">
-        <v>1.079182694572098</v>
+        <v>1.054647495862356</v>
       </c>
       <c r="N2">
-        <v>1.024548251028692</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.018521988282089</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.051822130572619</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.048638369453853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049517847102059</v>
+        <v>1.029877201941055</v>
       </c>
       <c r="D3">
-        <v>1.063838532955709</v>
+        <v>1.04526856523812</v>
       </c>
       <c r="E3">
-        <v>1.066752601209999</v>
+        <v>1.037413963978392</v>
       </c>
       <c r="F3">
-        <v>1.073447321985502</v>
+        <v>1.046846839419283</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066738481966356</v>
+        <v>1.060347051517287</v>
       </c>
       <c r="J3">
-        <v>1.068743955617641</v>
+        <v>1.04958524420677</v>
       </c>
       <c r="K3">
-        <v>1.073714897931899</v>
+        <v>1.055353224929052</v>
       </c>
       <c r="L3">
-        <v>1.076597088082713</v>
+        <v>1.047589501236883</v>
       </c>
       <c r="M3">
-        <v>1.083219376212614</v>
+        <v>1.056913441552841</v>
       </c>
       <c r="N3">
-        <v>1.025838962637087</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.019509353227641</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.053615444924366</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.050207063423853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052921851209971</v>
+        <v>1.032675105761382</v>
       </c>
       <c r="D4">
-        <v>1.066552755723794</v>
+        <v>1.047200344170195</v>
       </c>
       <c r="E4">
-        <v>1.069859423402178</v>
+        <v>1.039914364734391</v>
       </c>
       <c r="F4">
-        <v>1.076518234026888</v>
+        <v>1.048809240576639</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067966780078685</v>
+        <v>1.061248965267557</v>
       </c>
       <c r="J4">
-        <v>1.071062289282822</v>
+        <v>1.051278365747607</v>
       </c>
       <c r="K4">
-        <v>1.075909198939126</v>
+        <v>1.056760617953216</v>
       </c>
       <c r="L4">
-        <v>1.079181938203825</v>
+        <v>1.049553791496956</v>
       </c>
       <c r="M4">
-        <v>1.08577319509095</v>
+        <v>1.058352217380018</v>
       </c>
       <c r="N4">
-        <v>1.026653896227031</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.020134156860632</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.054754118433679</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.051203067049198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.054335403433373</v>
+        <v>1.033844310571423</v>
       </c>
       <c r="D5">
-        <v>1.067680453373172</v>
+        <v>1.048010655961825</v>
       </c>
       <c r="E5">
-        <v>1.071150707370456</v>
+        <v>1.040961010475702</v>
       </c>
       <c r="F5">
-        <v>1.077794593473009</v>
+        <v>1.049631667473285</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068474713758979</v>
+        <v>1.061625453007071</v>
       </c>
       <c r="J5">
-        <v>1.072024159522513</v>
+        <v>1.051987340886731</v>
       </c>
       <c r="K5">
-        <v>1.076819450022027</v>
+        <v>1.057351252268987</v>
       </c>
       <c r="L5">
-        <v>1.080255070591904</v>
+        <v>1.050376129428198</v>
       </c>
       <c r="M5">
-        <v>1.086833405068814</v>
+        <v>1.058955300818918</v>
       </c>
       <c r="N5">
-        <v>1.026991810446104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.020397368082026</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.055231409190937</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.051627743762203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054571740011519</v>
+        <v>1.034046956957444</v>
       </c>
       <c r="D6">
-        <v>1.06786902987482</v>
+        <v>1.04815374204853</v>
       </c>
       <c r="E6">
-        <v>1.071366667358612</v>
+        <v>1.041143196542996</v>
       </c>
       <c r="F6">
-        <v>1.078008057313323</v>
+        <v>1.049775003308222</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068559510579149</v>
+        <v>1.06169290077601</v>
       </c>
       <c r="J6">
-        <v>1.07218492716525</v>
+        <v>1.052112803099037</v>
       </c>
       <c r="K6">
-        <v>1.076971580467982</v>
+        <v>1.057457423675794</v>
       </c>
       <c r="L6">
-        <v>1.080434475008597</v>
+        <v>1.050520643580851</v>
       </c>
       <c r="M6">
-        <v>1.087010646714222</v>
+        <v>1.059061797207177</v>
       </c>
       <c r="N6">
-        <v>1.027048277619052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.02044604694372</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.055315692259805</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.051711422917609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052940806948255</v>
+        <v>1.032709934415447</v>
       </c>
       <c r="D7">
-        <v>1.066567875907036</v>
+        <v>1.047231428864547</v>
       </c>
       <c r="E7">
-        <v>1.069876735071387</v>
+        <v>1.039947463747876</v>
       </c>
       <c r="F7">
-        <v>1.076535345613507</v>
+        <v>1.048835562376823</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067973599939293</v>
+        <v>1.061266471379527</v>
       </c>
       <c r="J7">
-        <v>1.071075191349842</v>
+        <v>1.051306578692941</v>
       </c>
       <c r="K7">
-        <v>1.075921409247701</v>
+        <v>1.056788546266795</v>
       </c>
       <c r="L7">
-        <v>1.079196329976965</v>
+        <v>1.049583679986503</v>
       </c>
       <c r="M7">
-        <v>1.085787413722376</v>
+        <v>1.058375440884854</v>
       </c>
       <c r="N7">
-        <v>1.026658429649235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.020150399637462</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.054772497926207</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.051242620471196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045973369234165</v>
+        <v>1.02699404346431</v>
       </c>
       <c r="D8">
-        <v>1.061014478031035</v>
+        <v>1.043289873013581</v>
       </c>
       <c r="E8">
-        <v>1.063521636308744</v>
+        <v>1.034843978487852</v>
       </c>
       <c r="F8">
-        <v>1.070253719843719</v>
+        <v>1.044833205081486</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065452213092148</v>
+        <v>1.059417622493701</v>
       </c>
       <c r="J8">
-        <v>1.06632712753597</v>
+        <v>1.047847166957496</v>
       </c>
       <c r="K8">
-        <v>1.071426845237922</v>
+        <v>1.053913724994201</v>
       </c>
       <c r="L8">
-        <v>1.073904792524206</v>
+        <v>1.045571777675375</v>
       </c>
       <c r="M8">
-        <v>1.08055927605338</v>
+        <v>1.05543828825304</v>
       </c>
       <c r="N8">
-        <v>1.02498874525162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018875121024402</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.052447979836605</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.049214453359037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033077404261711</v>
+        <v>1.01644390481551</v>
       </c>
       <c r="D9">
-        <v>1.050759548073818</v>
+        <v>1.036037242356928</v>
       </c>
       <c r="E9">
-        <v>1.051800415863529</v>
+        <v>1.025462312294923</v>
       </c>
       <c r="F9">
-        <v>1.058668474754179</v>
+        <v>1.037506200936571</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060717390491166</v>
+        <v>1.055920915238453</v>
       </c>
       <c r="J9">
-        <v>1.057513851091492</v>
+        <v>1.041429056707809</v>
       </c>
       <c r="K9">
-        <v>1.063079473507676</v>
+        <v>1.04857149818299</v>
       </c>
       <c r="L9">
-        <v>1.064105475525226</v>
+        <v>1.038155360351617</v>
       </c>
       <c r="M9">
-        <v>1.070876369766553</v>
+        <v>1.050018724334079</v>
       </c>
       <c r="N9">
-        <v>1.021883717194959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.016494780366907</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.048158815660247</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.045434093845821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024011051004871</v>
+        <v>1.009187132247912</v>
       </c>
       <c r="D10">
-        <v>1.043569967489841</v>
+        <v>1.031104630767748</v>
       </c>
       <c r="E10">
-        <v>1.043591125235946</v>
+        <v>1.019050595138137</v>
       </c>
       <c r="F10">
-        <v>1.050555126108383</v>
+        <v>1.032590776234491</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057345034853787</v>
+        <v>1.053498327220789</v>
       </c>
       <c r="J10">
-        <v>1.051303372188873</v>
+        <v>1.037040928306916</v>
       </c>
       <c r="K10">
-        <v>1.057194723356959</v>
+        <v>1.044934109035643</v>
       </c>
       <c r="L10">
-        <v>1.057215538959702</v>
+        <v>1.033084198369314</v>
       </c>
       <c r="M10">
-        <v>1.064067883891974</v>
+        <v>1.04639551285579</v>
       </c>
       <c r="N10">
-        <v>1.019692495275899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014895450490179</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.045342324688943</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.042878909477855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019960853347891</v>
+        <v>1.006804409176278</v>
       </c>
       <c r="D11">
-        <v>1.040363867065606</v>
+        <v>1.029723830755302</v>
       </c>
       <c r="E11">
-        <v>1.039931957339688</v>
+        <v>1.017041864278183</v>
       </c>
       <c r="F11">
-        <v>1.046938986491066</v>
+        <v>1.031613710918079</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055828759994744</v>
+        <v>1.052920972801206</v>
       </c>
       <c r="J11">
-        <v>1.04852618471889</v>
+        <v>1.035896831127175</v>
       </c>
       <c r="K11">
-        <v>1.054562715522566</v>
+        <v>1.04410615597329</v>
       </c>
       <c r="L11">
-        <v>1.054138159230969</v>
+        <v>1.03164939646541</v>
       </c>
       <c r="M11">
-        <v>1.061026856602365</v>
+        <v>1.045963089221986</v>
       </c>
       <c r="N11">
-        <v>1.018712040635974</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01472288796983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.045432847695697</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042326041237335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018436513233622</v>
+        <v>1.006201965500439</v>
       </c>
       <c r="D12">
-        <v>1.039158153289794</v>
+        <v>1.029480973024392</v>
       </c>
       <c r="E12">
-        <v>1.038556080639832</v>
+        <v>1.016577317586337</v>
       </c>
       <c r="F12">
-        <v>1.045579337150796</v>
+        <v>1.03166695713783</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055256681509115</v>
+        <v>1.052877163858324</v>
       </c>
       <c r="J12">
-        <v>1.047480595259396</v>
+        <v>1.035746146708252</v>
       </c>
       <c r="K12">
-        <v>1.053571725179776</v>
+        <v>1.044064350933637</v>
       </c>
       <c r="L12">
-        <v>1.05298009765245</v>
+        <v>1.031393667674279</v>
       </c>
       <c r="M12">
-        <v>1.059882476967997</v>
+        <v>1.046211616271006</v>
       </c>
       <c r="N12">
-        <v>1.018342833385023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014855495806318</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045953407498156</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042296484263462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018764411428454</v>
+        <v>1.006957597186571</v>
       </c>
       <c r="D13">
-        <v>1.039417468412963</v>
+        <v>1.030126178500387</v>
       </c>
       <c r="E13">
-        <v>1.038851983476236</v>
+        <v>1.017296126364867</v>
       </c>
       <c r="F13">
-        <v>1.045871747718033</v>
+        <v>1.032549520959214</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05537980313865</v>
+        <v>1.053263232881166</v>
       </c>
       <c r="J13">
-        <v>1.047705525608059</v>
+        <v>1.036378834781631</v>
       </c>
       <c r="K13">
-        <v>1.053784912505848</v>
+        <v>1.044655930473908</v>
       </c>
       <c r="L13">
-        <v>1.053229198586431</v>
+        <v>1.032056348569176</v>
       </c>
       <c r="M13">
-        <v>1.060128634700287</v>
+        <v>1.047036575081733</v>
       </c>
       <c r="N13">
-        <v>1.018422261445335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.015249596304247</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.046880491501495</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042712275088164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019835264657472</v>
+        <v>1.008098635248512</v>
       </c>
       <c r="D14">
-        <v>1.04026451003102</v>
+        <v>1.030977915408752</v>
       </c>
       <c r="E14">
-        <v>1.039818573665958</v>
+        <v>1.018332424920597</v>
       </c>
       <c r="F14">
-        <v>1.046826939050726</v>
+        <v>1.033539945823246</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055781655413002</v>
+        <v>1.053726361374518</v>
       </c>
       <c r="J14">
-        <v>1.048440046772831</v>
+        <v>1.03717351841609</v>
       </c>
       <c r="K14">
-        <v>1.054481076715584</v>
+        <v>1.045354595371228</v>
       </c>
       <c r="L14">
-        <v>1.054042744453359</v>
+        <v>1.032933232926452</v>
       </c>
       <c r="M14">
-        <v>1.060932569027313</v>
+        <v>1.047872081072037</v>
       </c>
       <c r="N14">
-        <v>1.018681625945557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015642113598238</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.047713217450424</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.043207654607065</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020492375167113</v>
+        <v>1.008683284138984</v>
       </c>
       <c r="D15">
-        <v>1.040784408977004</v>
+        <v>1.031392113274002</v>
       </c>
       <c r="E15">
-        <v>1.040411877732114</v>
+        <v>1.01885426727144</v>
       </c>
       <c r="F15">
-        <v>1.047413253018209</v>
+        <v>1.033981948493789</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056028060893622</v>
+        <v>1.053941183675365</v>
       </c>
       <c r="J15">
-        <v>1.048890727020982</v>
+        <v>1.037550305841325</v>
       </c>
       <c r="K15">
-        <v>1.054908214762211</v>
+        <v>1.045676567360136</v>
       </c>
       <c r="L15">
-        <v>1.054541984105137</v>
+        <v>1.033359165541297</v>
       </c>
       <c r="M15">
-        <v>1.061425910925547</v>
+        <v>1.048221728601326</v>
       </c>
       <c r="N15">
-        <v>1.018840754992899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015802023204529</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.048026905771578</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.043441103015019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024277125858614</v>
+        <v>1.011615123130555</v>
       </c>
       <c r="D16">
-        <v>1.043780715442963</v>
+        <v>1.033364741533888</v>
       </c>
       <c r="E16">
-        <v>1.043831687105407</v>
+        <v>1.021430966186365</v>
       </c>
       <c r="F16">
-        <v>1.050792865419072</v>
+        <v>1.035928273339878</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057444447126923</v>
+        <v>1.054911820285808</v>
       </c>
       <c r="J16">
-        <v>1.051485764243526</v>
+        <v>1.03930002897625</v>
       </c>
       <c r="K16">
-        <v>1.057367571764891</v>
+        <v>1.04712164111514</v>
       </c>
       <c r="L16">
-        <v>1.057417722010308</v>
+        <v>1.035388192389043</v>
       </c>
       <c r="M16">
-        <v>1.064267678534144</v>
+        <v>1.049642914675756</v>
       </c>
       <c r="N16">
-        <v>1.019756875710793</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.016407142230327</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049111730143947</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.044465928287304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026617058861334</v>
+        <v>1.013270105748304</v>
       </c>
       <c r="D17">
-        <v>1.045634745305601</v>
+        <v>1.034435000295116</v>
       </c>
       <c r="E17">
-        <v>1.045948186809117</v>
+        <v>1.022869416941504</v>
       </c>
       <c r="F17">
-        <v>1.052884562813962</v>
+        <v>1.03689989966404</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058317603700122</v>
+        <v>1.055412702158467</v>
       </c>
       <c r="J17">
-        <v>1.053089458024589</v>
+        <v>1.040227714289122</v>
       </c>
       <c r="K17">
-        <v>1.058887299419199</v>
+        <v>1.047865046251025</v>
       </c>
       <c r="L17">
-        <v>1.059195843465177</v>
+        <v>1.036488002181441</v>
       </c>
       <c r="M17">
-        <v>1.066024792454156</v>
+        <v>1.050290460456376</v>
       </c>
       <c r="N17">
-        <v>1.020322879637104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016667134295731</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.049495373654638</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.044994087963707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027969986732109</v>
+        <v>1.013950423110237</v>
       </c>
       <c r="D18">
-        <v>1.046707261336791</v>
+        <v>1.034788280144086</v>
       </c>
       <c r="E18">
-        <v>1.047172695124696</v>
+        <v>1.023427582878183</v>
       </c>
       <c r="F18">
-        <v>1.054094746053699</v>
+        <v>1.037059842801762</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058821528032487</v>
+        <v>1.055532534582093</v>
       </c>
       <c r="J18">
-        <v>1.054016430954795</v>
+        <v>1.040496566036536</v>
       </c>
       <c r="K18">
-        <v>1.05976569178187</v>
+        <v>1.048032376250865</v>
       </c>
       <c r="L18">
-        <v>1.060223984772705</v>
+        <v>1.036853818241078</v>
       </c>
       <c r="M18">
-        <v>1.067040783817504</v>
+        <v>1.050268132897731</v>
       </c>
       <c r="N18">
-        <v>1.020649986537273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.016629709663342</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049241786230493</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.045100891791316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028429314680933</v>
+        <v>1.013765264682817</v>
       </c>
       <c r="D19">
-        <v>1.047071475553664</v>
+        <v>1.034510323661442</v>
       </c>
       <c r="E19">
-        <v>1.047588551989468</v>
+        <v>1.023204842025718</v>
       </c>
       <c r="F19">
-        <v>1.054505741845582</v>
+        <v>1.036490801313706</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058992454900398</v>
+        <v>1.055320248269163</v>
       </c>
       <c r="J19">
-        <v>1.054331097254486</v>
+        <v>1.040186487525696</v>
       </c>
       <c r="K19">
-        <v>1.060063858950129</v>
+        <v>1.047697318217826</v>
       </c>
       <c r="L19">
-        <v>1.060573051791866</v>
+        <v>1.036572237964063</v>
       </c>
       <c r="M19">
-        <v>1.067385725089133</v>
+        <v>1.049646711549065</v>
       </c>
       <c r="N19">
-        <v>1.020761014799944</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.016344707505984</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.048427601549276</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044870322545904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026367247200782</v>
+        <v>1.01112682167184</v>
       </c>
       <c r="D20">
-        <v>1.045436752851443</v>
+        <v>1.032440465241542</v>
       </c>
       <c r="E20">
-        <v>1.045722148789892</v>
+        <v>1.020768298553409</v>
       </c>
       <c r="F20">
-        <v>1.0526611710418</v>
+        <v>1.033910436384749</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058224481165084</v>
+        <v>1.054166341844212</v>
       </c>
       <c r="J20">
-        <v>1.052918274827764</v>
+        <v>1.038235460090639</v>
       </c>
       <c r="K20">
-        <v>1.058725083732224</v>
+        <v>1.045935904288939</v>
       </c>
       <c r="L20">
-        <v>1.05900600550718</v>
+        <v>1.034455534843379</v>
       </c>
       <c r="M20">
-        <v>1.065837197598776</v>
+        <v>1.047382114901463</v>
       </c>
       <c r="N20">
-        <v>1.020262468428125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015350091245594</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.04611264735315</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.043628849369922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019520485220401</v>
+        <v>1.005499731885812</v>
       </c>
       <c r="D21">
-        <v>1.040015493881713</v>
+        <v>1.028577775564944</v>
       </c>
       <c r="E21">
-        <v>1.039534406358741</v>
+        <v>1.015789799125098</v>
       </c>
       <c r="F21">
-        <v>1.046546121482431</v>
+        <v>1.02999249199753</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055663568489109</v>
+        <v>1.052225750663729</v>
       </c>
       <c r="J21">
-        <v>1.048224142294158</v>
+        <v>1.034769297726077</v>
       </c>
       <c r="K21">
-        <v>1.054276448392309</v>
+        <v>1.043037232321909</v>
       </c>
       <c r="L21">
-        <v>1.053803596450457</v>
+        <v>1.030478078975329</v>
       </c>
       <c r="M21">
-        <v>1.060696246303531</v>
+        <v>1.044427086679377</v>
       </c>
       <c r="N21">
-        <v>1.018605390488383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014039445418943</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.043733442455022</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.041582628030808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015099740192305</v>
+        <v>1.001909550900926</v>
       </c>
       <c r="D22">
-        <v>1.036520681184081</v>
+        <v>1.02612677288287</v>
       </c>
       <c r="E22">
-        <v>1.035546756381087</v>
+        <v>1.012623634740422</v>
       </c>
       <c r="F22">
-        <v>1.042605604667621</v>
+        <v>1.027541309760164</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054001872007944</v>
+        <v>1.050985809077252</v>
       </c>
       <c r="J22">
-        <v>1.045191205658982</v>
+        <v>1.032566159913328</v>
       </c>
       <c r="K22">
-        <v>1.051401787835006</v>
+        <v>1.04119783322499</v>
       </c>
       <c r="L22">
-        <v>1.050445451448965</v>
+        <v>1.02794909546123</v>
       </c>
       <c r="M22">
-        <v>1.057377787206326</v>
+        <v>1.042586224329354</v>
       </c>
       <c r="N22">
-        <v>1.017534310021484</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013212301972161</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.042276528370755</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.040268734891245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017454684821921</v>
+        <v>1.003800554442808</v>
       </c>
       <c r="D23">
-        <v>1.038381828446371</v>
+        <v>1.027410633303853</v>
       </c>
       <c r="E23">
-        <v>1.037670251546172</v>
+        <v>1.014288474474524</v>
       </c>
       <c r="F23">
-        <v>1.044703970482651</v>
+        <v>1.028829567235663</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054887814997501</v>
+        <v>1.051634167746235</v>
       </c>
       <c r="J23">
-        <v>1.046807035938124</v>
+        <v>1.033719815749108</v>
       </c>
       <c r="K23">
-        <v>1.052933322812952</v>
+        <v>1.042157252325406</v>
       </c>
       <c r="L23">
-        <v>1.052234239263869</v>
+        <v>1.029275707604988</v>
       </c>
       <c r="M23">
-        <v>1.059145431905641</v>
+        <v>1.043550645819765</v>
       </c>
       <c r="N23">
-        <v>1.018104974518472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013638790208289</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.043039801041543</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.040937519534992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026480163069343</v>
+        <v>1.011108362746247</v>
       </c>
       <c r="D24">
-        <v>1.045526244585168</v>
+        <v>1.03239571283061</v>
       </c>
       <c r="E24">
-        <v>1.045824316502133</v>
+        <v>1.020740318885682</v>
       </c>
       <c r="F24">
-        <v>1.052762142592644</v>
+        <v>1.033833188482155</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058266575801716</v>
+        <v>1.054129805354997</v>
       </c>
       <c r="J24">
-        <v>1.052995651152633</v>
+        <v>1.038185410392517</v>
       </c>
       <c r="K24">
-        <v>1.05879840680712</v>
+        <v>1.045876844486432</v>
       </c>
       <c r="L24">
-        <v>1.059091812879337</v>
+        <v>1.034412744523052</v>
       </c>
       <c r="M24">
-        <v>1.065921991091094</v>
+        <v>1.047291111019069</v>
       </c>
       <c r="N24">
-        <v>1.020289775008135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015299914804974</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.046000112071483</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043559969197437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036489844328093</v>
+        <v>1.019259853214785</v>
       </c>
       <c r="D25">
-        <v>1.053469985072196</v>
+        <v>1.037979830199864</v>
       </c>
       <c r="E25">
-        <v>1.054896879675263</v>
+        <v>1.027964654912644</v>
       </c>
       <c r="F25">
-        <v>1.061728924945723</v>
+        <v>1.039457016871083</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061977966846044</v>
+        <v>1.056872469501974</v>
       </c>
       <c r="J25">
-        <v>1.059848631926963</v>
+        <v>1.043155987720391</v>
       </c>
       <c r="K25">
-        <v>1.065291313670724</v>
+        <v>1.050015839167154</v>
       </c>
       <c r="L25">
-        <v>1.066698831754095</v>
+        <v>1.040143829406328</v>
       </c>
       <c r="M25">
-        <v>1.073439007579004</v>
+        <v>1.051472204644387</v>
       </c>
       <c r="N25">
-        <v>1.022706891446408</v>
+        <v>1.017146090710169</v>
+      </c>
+      <c r="O25">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P25">
+        <v>1.04930913492712</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.046483553765138</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025467448809612</v>
+        <v>1.023531010515485</v>
       </c>
       <c r="D2">
-        <v>1.042230162936404</v>
+        <v>1.039677652251859</v>
       </c>
       <c r="E2">
-        <v>1.033480994474286</v>
+        <v>1.031556191094404</v>
       </c>
       <c r="F2">
-        <v>1.043765990399857</v>
+        <v>1.041907038076944</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05891054198338</v>
+        <v>1.057457502470051</v>
       </c>
       <c r="J2">
-        <v>1.046912228492112</v>
+        <v>1.045029990924789</v>
       </c>
       <c r="K2">
-        <v>1.053130920380139</v>
+        <v>1.050610563062397</v>
       </c>
       <c r="L2">
-        <v>1.044492789042205</v>
+        <v>1.04259272976133</v>
       </c>
       <c r="M2">
-        <v>1.054647495862356</v>
+        <v>1.052811854984635</v>
       </c>
       <c r="N2">
-        <v>1.018521988282089</v>
+        <v>1.018561013436398</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051822130572619</v>
+        <v>1.050369364843792</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.048638369453853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04686496533185</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025157131333495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029877201941055</v>
+        <v>1.027646064821107</v>
       </c>
       <c r="D3">
-        <v>1.04526856523812</v>
+        <v>1.042405841155901</v>
       </c>
       <c r="E3">
-        <v>1.037413963978392</v>
+        <v>1.035193892960564</v>
       </c>
       <c r="F3">
-        <v>1.046846839419283</v>
+        <v>1.044753166709276</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.060347051517287</v>
+        <v>1.0587003951941</v>
       </c>
       <c r="J3">
-        <v>1.04958524420677</v>
+        <v>1.047410428224948</v>
       </c>
       <c r="K3">
-        <v>1.055353224929052</v>
+        <v>1.052523426570539</v>
       </c>
       <c r="L3">
-        <v>1.047589501236883</v>
+        <v>1.04539542572919</v>
       </c>
       <c r="M3">
-        <v>1.056913441552841</v>
+        <v>1.054843737832946</v>
       </c>
       <c r="N3">
-        <v>1.019509353227641</v>
+        <v>1.019238865681784</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053615444924366</v>
+        <v>1.051977440528488</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.050207063423853</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048214586464838</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025594107059148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032675105761382</v>
+        <v>1.030259694027913</v>
       </c>
       <c r="D4">
-        <v>1.047200344170195</v>
+        <v>1.04414258565201</v>
       </c>
       <c r="E4">
-        <v>1.039914364734391</v>
+        <v>1.037509386692728</v>
       </c>
       <c r="F4">
-        <v>1.048809240576639</v>
+        <v>1.046568273631485</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.061248965267557</v>
+        <v>1.059480458339855</v>
       </c>
       <c r="J4">
-        <v>1.051278365747607</v>
+        <v>1.048919796354304</v>
       </c>
       <c r="K4">
-        <v>1.056760617953216</v>
+        <v>1.053735913106085</v>
       </c>
       <c r="L4">
-        <v>1.049553791496956</v>
+        <v>1.04717524035205</v>
       </c>
       <c r="M4">
-        <v>1.058352217380018</v>
+        <v>1.056135360537815</v>
       </c>
       <c r="N4">
-        <v>1.020134156860632</v>
+        <v>1.01966867070332</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.054754118433679</v>
+        <v>1.052999656661284</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.051203067049198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049072861550697</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025868690718845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033844310571423</v>
+        <v>1.03135196489912</v>
       </c>
       <c r="D5">
-        <v>1.048010655961825</v>
+        <v>1.044871475207333</v>
       </c>
       <c r="E5">
-        <v>1.040961010475702</v>
+        <v>1.038478781554467</v>
       </c>
       <c r="F5">
-        <v>1.049631667473285</v>
+        <v>1.047329228077051</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.061625453007071</v>
+        <v>1.05980599436309</v>
       </c>
       <c r="J5">
-        <v>1.051987340886731</v>
+        <v>1.049551894027402</v>
       </c>
       <c r="K5">
-        <v>1.057351252268987</v>
+        <v>1.054245104268978</v>
       </c>
       <c r="L5">
-        <v>1.050376129428198</v>
+        <v>1.047920435458009</v>
       </c>
       <c r="M5">
-        <v>1.058955300818918</v>
+        <v>1.056676974298605</v>
       </c>
       <c r="N5">
-        <v>1.020397368082026</v>
+        <v>1.019849744790914</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055231409190937</v>
+        <v>1.053428300249686</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.051627743762203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049440667863603</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025984465561991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034046956957444</v>
+        <v>1.031540646842453</v>
       </c>
       <c r="D6">
-        <v>1.04815374204853</v>
+        <v>1.045000066289955</v>
       </c>
       <c r="E6">
-        <v>1.041143196542996</v>
+        <v>1.038646951145626</v>
       </c>
       <c r="F6">
-        <v>1.049775003308222</v>
+        <v>1.047461570550635</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.06169290077601</v>
+        <v>1.059864305506039</v>
       </c>
       <c r="J6">
-        <v>1.052112803099037</v>
+        <v>1.049663415713288</v>
       </c>
       <c r="K6">
-        <v>1.057457423675794</v>
+        <v>1.054336781378798</v>
       </c>
       <c r="L6">
-        <v>1.050520643580851</v>
+        <v>1.048050958161418</v>
       </c>
       <c r="M6">
-        <v>1.059061797207177</v>
+        <v>1.056772481575621</v>
       </c>
       <c r="N6">
-        <v>1.02044604694372</v>
+        <v>1.019883006847371</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.055315692259805</v>
+        <v>1.053503886527642</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.051711422917609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049514972235545</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026006543428523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032709934415447</v>
+        <v>1.030300940383265</v>
       </c>
       <c r="D7">
-        <v>1.047231428864547</v>
+        <v>1.044177970089464</v>
       </c>
       <c r="E7">
-        <v>1.039947463747876</v>
+        <v>1.037548865966951</v>
       </c>
       <c r="F7">
-        <v>1.048835562376823</v>
+        <v>1.046598314925235</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.061266471379527</v>
+        <v>1.059501207337112</v>
       </c>
       <c r="J7">
-        <v>1.051306578692941</v>
+        <v>1.048954249804682</v>
       </c>
       <c r="K7">
-        <v>1.056788546266795</v>
+        <v>1.053768081151334</v>
       </c>
       <c r="L7">
-        <v>1.049583679986503</v>
+        <v>1.047211427963767</v>
       </c>
       <c r="M7">
-        <v>1.058375440884854</v>
+        <v>1.056162253944077</v>
       </c>
       <c r="N7">
-        <v>1.020150399637462</v>
+        <v>1.019709529728364</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.054772497926207</v>
+        <v>1.053020940628034</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.051242620471196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049117421892836</v>
+      </c>
+      <c r="S7">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T7">
+        <v>1.025881111794334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02699404346431</v>
+        <v>1.024985078920575</v>
       </c>
       <c r="D8">
-        <v>1.043289873013581</v>
+        <v>1.040652415123188</v>
       </c>
       <c r="E8">
-        <v>1.034843978487852</v>
+        <v>1.032846354151196</v>
       </c>
       <c r="F8">
-        <v>1.044833205081486</v>
+        <v>1.042911590528316</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.059417622493701</v>
+        <v>1.057913571772935</v>
       </c>
       <c r="J8">
-        <v>1.047847166957496</v>
+        <v>1.045892533988702</v>
       </c>
       <c r="K8">
-        <v>1.053913724994201</v>
+        <v>1.051308502074219</v>
       </c>
       <c r="L8">
-        <v>1.045571777675375</v>
+        <v>1.043599048741731</v>
       </c>
       <c r="M8">
-        <v>1.05543828825304</v>
+        <v>1.053540053422992</v>
       </c>
       <c r="N8">
-        <v>1.018875121024402</v>
+        <v>1.018895162332934</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.052447979836605</v>
+        <v>1.050945677109957</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.049214453359037</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047383319815072</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025326861503384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01644390481551</v>
+        <v>1.015164331951258</v>
       </c>
       <c r="D9">
-        <v>1.036037242356928</v>
+        <v>1.034158415385373</v>
       </c>
       <c r="E9">
-        <v>1.025462312294923</v>
+        <v>1.02419336097928</v>
       </c>
       <c r="F9">
-        <v>1.037506200936571</v>
+        <v>1.036160814568399</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055920915238453</v>
+        <v>1.054890038730602</v>
       </c>
       <c r="J9">
-        <v>1.041429056707809</v>
+        <v>1.040192732888725</v>
       </c>
       <c r="K9">
-        <v>1.04857149818299</v>
+        <v>1.046720581833495</v>
       </c>
       <c r="L9">
-        <v>1.038155360351617</v>
+        <v>1.036905744466352</v>
       </c>
       <c r="M9">
-        <v>1.050018724334079</v>
+        <v>1.048693239195267</v>
       </c>
       <c r="N9">
-        <v>1.016494780366907</v>
+        <v>1.017279174324199</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.048158815660247</v>
+        <v>1.047109793293404</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045434093845821</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044136017775314</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024262708934023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009187132247912</v>
+        <v>1.008458270668049</v>
       </c>
       <c r="D10">
-        <v>1.031104630767748</v>
+        <v>1.029781916519975</v>
       </c>
       <c r="E10">
-        <v>1.019050595138137</v>
+        <v>1.018329245083413</v>
       </c>
       <c r="F10">
-        <v>1.032590776234491</v>
+        <v>1.031671638544073</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053498327220789</v>
+        <v>1.052815725031273</v>
       </c>
       <c r="J10">
-        <v>1.037040928306916</v>
+        <v>1.036340275121829</v>
       </c>
       <c r="K10">
-        <v>1.044934109035643</v>
+        <v>1.043633493008306</v>
       </c>
       <c r="L10">
-        <v>1.033084198369314</v>
+        <v>1.032375261927423</v>
       </c>
       <c r="M10">
-        <v>1.04639551285579</v>
+        <v>1.045491666320479</v>
       </c>
       <c r="N10">
-        <v>1.014895450490179</v>
+        <v>1.016323992901295</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045342324688943</v>
+        <v>1.044627039069785</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042878909477855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041971609926283</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023558340762248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006804409176278</v>
+        <v>1.006201318673849</v>
       </c>
       <c r="D11">
-        <v>1.029723830755302</v>
+        <v>1.028535344197928</v>
       </c>
       <c r="E11">
-        <v>1.017041864278183</v>
+        <v>1.016445528060138</v>
       </c>
       <c r="F11">
-        <v>1.031613710918079</v>
+        <v>1.030797529878963</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052920972801206</v>
+        <v>1.052320893503879</v>
       </c>
       <c r="J11">
-        <v>1.035896831127175</v>
+        <v>1.035318371910592</v>
       </c>
       <c r="K11">
-        <v>1.04410615597329</v>
+        <v>1.04293846904617</v>
       </c>
       <c r="L11">
-        <v>1.03164939646541</v>
+        <v>1.031063829887259</v>
       </c>
       <c r="M11">
-        <v>1.045963089221986</v>
+        <v>1.045161117750093</v>
       </c>
       <c r="N11">
-        <v>1.01472288796983</v>
+        <v>1.016416753210996</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045432847695697</v>
+        <v>1.044798498199815</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042326041237335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041515943511193</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023528745529072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.006201965500439</v>
+        <v>1.005579263050841</v>
       </c>
       <c r="D12">
-        <v>1.029480973024392</v>
+        <v>1.028283691928515</v>
       </c>
       <c r="E12">
-        <v>1.016577317586337</v>
+        <v>1.015961793090584</v>
       </c>
       <c r="F12">
-        <v>1.03166695713783</v>
+        <v>1.030843033690063</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052877163858324</v>
+        <v>1.052269396904767</v>
       </c>
       <c r="J12">
-        <v>1.035746146708252</v>
+        <v>1.035149361110734</v>
       </c>
       <c r="K12">
-        <v>1.044064350933637</v>
+        <v>1.042888366995168</v>
       </c>
       <c r="L12">
-        <v>1.031393667674279</v>
+        <v>1.030789448968765</v>
       </c>
       <c r="M12">
-        <v>1.046211616271006</v>
+        <v>1.045402261379315</v>
       </c>
       <c r="N12">
-        <v>1.014855495806318</v>
+        <v>1.016578356546297</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045953407498156</v>
+        <v>1.045313431435301</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042296484263462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04148052104642</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023606933844516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.006957597186571</v>
+        <v>1.006183269698805</v>
       </c>
       <c r="D13">
-        <v>1.030126178500387</v>
+        <v>1.028795663839125</v>
       </c>
       <c r="E13">
-        <v>1.017296126364867</v>
+        <v>1.01653064901066</v>
       </c>
       <c r="F13">
-        <v>1.032549520959214</v>
+        <v>1.031620764071735</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.053263232881166</v>
+        <v>1.052568027127638</v>
       </c>
       <c r="J13">
-        <v>1.036378834781631</v>
+        <v>1.035636555444536</v>
       </c>
       <c r="K13">
-        <v>1.044655930473908</v>
+        <v>1.043348969664569</v>
       </c>
       <c r="L13">
-        <v>1.032056348569176</v>
+        <v>1.03130486117753</v>
       </c>
       <c r="M13">
-        <v>1.047036575081733</v>
+        <v>1.046124151604219</v>
       </c>
       <c r="N13">
-        <v>1.015249596304247</v>
+        <v>1.016776905118496</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046880491501495</v>
+        <v>1.046159195654518</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042712275088164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041803459960937</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023781992826461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008098635248512</v>
+        <v>1.00716144290785</v>
       </c>
       <c r="D14">
-        <v>1.030977915408752</v>
+        <v>1.029500627071137</v>
       </c>
       <c r="E14">
-        <v>1.018332424920597</v>
+        <v>1.017405700471758</v>
       </c>
       <c r="F14">
-        <v>1.033539945823246</v>
+        <v>1.03249613217455</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.053726361374518</v>
+        <v>1.052935585040817</v>
       </c>
       <c r="J14">
-        <v>1.03717351841609</v>
+        <v>1.036274535654671</v>
       </c>
       <c r="K14">
-        <v>1.045354595371228</v>
+        <v>1.043903122444915</v>
       </c>
       <c r="L14">
-        <v>1.032933232926452</v>
+        <v>1.032023218555006</v>
       </c>
       <c r="M14">
-        <v>1.047872081072037</v>
+        <v>1.046846381136649</v>
       </c>
       <c r="N14">
-        <v>1.015642113598238</v>
+        <v>1.016934909302627</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047713217450424</v>
+        <v>1.046902481706294</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.043207654607065</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042196798319545</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023949246582321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008683284138984</v>
+        <v>1.00767691002048</v>
       </c>
       <c r="D15">
-        <v>1.031392113274002</v>
+        <v>1.029851299814099</v>
       </c>
       <c r="E15">
-        <v>1.01885426727144</v>
+        <v>1.017858978983112</v>
       </c>
       <c r="F15">
-        <v>1.033981948493789</v>
+        <v>1.032888468575788</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053941183675365</v>
+        <v>1.053109263528717</v>
       </c>
       <c r="J15">
-        <v>1.037550305841325</v>
+        <v>1.036584592933717</v>
       </c>
       <c r="K15">
-        <v>1.045676567360136</v>
+        <v>1.044162470510052</v>
       </c>
       <c r="L15">
-        <v>1.033359165541297</v>
+        <v>1.032381678912861</v>
       </c>
       <c r="M15">
-        <v>1.048221728601326</v>
+        <v>1.047147075586756</v>
       </c>
       <c r="N15">
-        <v>1.015802023204529</v>
+        <v>1.016990024349038</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048026905771578</v>
+        <v>1.047177498565517</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.043441103015019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042386539543583</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024016750181765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011615123130555</v>
+        <v>1.01033666090663</v>
       </c>
       <c r="D16">
-        <v>1.033364741533888</v>
+        <v>1.03156434429875</v>
       </c>
       <c r="E16">
-        <v>1.021430966186365</v>
+        <v>1.020165491332877</v>
       </c>
       <c r="F16">
-        <v>1.035928273339878</v>
+        <v>1.034633183124004</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054911820285808</v>
+        <v>1.053913707584567</v>
       </c>
       <c r="J16">
-        <v>1.03930002897625</v>
+        <v>1.03807059179044</v>
       </c>
       <c r="K16">
-        <v>1.04712164111514</v>
+        <v>1.045351083990395</v>
       </c>
       <c r="L16">
-        <v>1.035388192389043</v>
+        <v>1.034144315538879</v>
       </c>
       <c r="M16">
-        <v>1.049642914675756</v>
+        <v>1.048369139552252</v>
       </c>
       <c r="N16">
-        <v>1.016407142230327</v>
+        <v>1.01717242940164</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049111730143947</v>
+        <v>1.048104907830985</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044465928287304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043230338925174</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024270302111375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013270105748304</v>
+        <v>1.011878624145068</v>
       </c>
       <c r="D17">
-        <v>1.034435000295116</v>
+        <v>1.032519414749981</v>
       </c>
       <c r="E17">
-        <v>1.022869416941504</v>
+        <v>1.021491354190795</v>
       </c>
       <c r="F17">
-        <v>1.03689989966404</v>
+        <v>1.035516401654954</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.055412702158467</v>
+        <v>1.054342352494084</v>
       </c>
       <c r="J17">
-        <v>1.040227714289122</v>
+        <v>1.038887855174105</v>
       </c>
       <c r="K17">
-        <v>1.047865046251025</v>
+        <v>1.045980313510113</v>
       </c>
       <c r="L17">
-        <v>1.036488002181441</v>
+        <v>1.035132770769099</v>
       </c>
       <c r="M17">
-        <v>1.050290460456376</v>
+        <v>1.048929094988772</v>
       </c>
       <c r="N17">
-        <v>1.016667134295731</v>
+        <v>1.017260392450586</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049495373654638</v>
+        <v>1.048419211648827</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044994087963707</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043678020843536</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024379150219782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013950423110237</v>
+        <v>1.012564564368089</v>
       </c>
       <c r="D18">
-        <v>1.034788280144086</v>
+        <v>1.032866458590007</v>
       </c>
       <c r="E18">
-        <v>1.023427582878183</v>
+        <v>1.022054694113324</v>
       </c>
       <c r="F18">
-        <v>1.037059842801762</v>
+        <v>1.035672862083227</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.055532534582093</v>
+        <v>1.054460659166379</v>
       </c>
       <c r="J18">
-        <v>1.040496566036536</v>
+        <v>1.039161159294115</v>
       </c>
       <c r="K18">
-        <v>1.048032376250865</v>
+        <v>1.046141005388256</v>
       </c>
       <c r="L18">
-        <v>1.036853818241078</v>
+        <v>1.035503292557185</v>
       </c>
       <c r="M18">
-        <v>1.050268132897731</v>
+        <v>1.048902990868365</v>
       </c>
       <c r="N18">
-        <v>1.016629709663342</v>
+        <v>1.017218814748239</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049241786230493</v>
+        <v>1.048162416874046</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045100891791316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043778992421978</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024354403006371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013765264682817</v>
+        <v>1.012480337063867</v>
       </c>
       <c r="D19">
-        <v>1.034510323661442</v>
+        <v>1.032672404629726</v>
       </c>
       <c r="E19">
-        <v>1.023204842025718</v>
+        <v>1.021931835365765</v>
       </c>
       <c r="F19">
-        <v>1.036490801313706</v>
+        <v>1.035170117903827</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.055320248269163</v>
+        <v>1.054304766891563</v>
       </c>
       <c r="J19">
-        <v>1.040186487525696</v>
+        <v>1.038948082313209</v>
       </c>
       <c r="K19">
-        <v>1.047697318217826</v>
+        <v>1.045888382561087</v>
       </c>
       <c r="L19">
-        <v>1.036572237964063</v>
+        <v>1.035319865745049</v>
       </c>
       <c r="M19">
-        <v>1.049646711549065</v>
+        <v>1.048346739844382</v>
       </c>
       <c r="N19">
-        <v>1.016344707505984</v>
+        <v>1.017051378258067</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048427601549276</v>
+        <v>1.047399429403562</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044870322545904</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.04360733413096</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024215923851543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01112682167184</v>
+        <v>1.010212434124133</v>
       </c>
       <c r="D20">
-        <v>1.032440465241542</v>
+        <v>1.030940892227122</v>
       </c>
       <c r="E20">
-        <v>1.020768298553409</v>
+        <v>1.019862846738679</v>
       </c>
       <c r="F20">
-        <v>1.033910436384749</v>
+        <v>1.032853701440592</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.054166341844212</v>
+        <v>1.053370662606918</v>
       </c>
       <c r="J20">
-        <v>1.038235460090639</v>
+        <v>1.037355281521908</v>
       </c>
       <c r="K20">
-        <v>1.045935904288939</v>
+        <v>1.04446065996715</v>
       </c>
       <c r="L20">
-        <v>1.034455534843379</v>
+        <v>1.033565197862813</v>
       </c>
       <c r="M20">
-        <v>1.047382114901463</v>
+        <v>1.046342452188109</v>
       </c>
       <c r="N20">
-        <v>1.015350091245594</v>
+        <v>1.016513696355545</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04611264735315</v>
+        <v>1.045289870010409</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043628849369922</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042602183344363</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023752895086239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005499731885812</v>
+        <v>1.005191677987492</v>
       </c>
       <c r="D21">
-        <v>1.028577775564944</v>
+        <v>1.027646097501044</v>
       </c>
       <c r="E21">
-        <v>1.015789799125098</v>
+        <v>1.015485239131013</v>
       </c>
       <c r="F21">
-        <v>1.02999249199753</v>
+        <v>1.029379670699626</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052225750663729</v>
+        <v>1.05179516152861</v>
       </c>
       <c r="J21">
-        <v>1.034769297726077</v>
+        <v>1.034473929613239</v>
       </c>
       <c r="K21">
-        <v>1.043037232321909</v>
+        <v>1.042121975943637</v>
       </c>
       <c r="L21">
-        <v>1.030478078975329</v>
+        <v>1.030179060090637</v>
       </c>
       <c r="M21">
-        <v>1.044427086679377</v>
+        <v>1.043825024164239</v>
       </c>
       <c r="N21">
-        <v>1.014039445418943</v>
+        <v>1.01613448450989</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043733442455022</v>
+        <v>1.043256952310635</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041582628030808</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040952221555739</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023219910307423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001909550900926</v>
+        <v>1.001987600404058</v>
       </c>
       <c r="D22">
-        <v>1.02612677288287</v>
+        <v>1.025556654479478</v>
       </c>
       <c r="E22">
-        <v>1.012623634740422</v>
+        <v>1.012700717426504</v>
       </c>
       <c r="F22">
-        <v>1.027541309760164</v>
+        <v>1.027211430791494</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050985809077252</v>
+        <v>1.050786833911504</v>
       </c>
       <c r="J22">
-        <v>1.032566159913328</v>
+        <v>1.032640802754616</v>
       </c>
       <c r="K22">
-        <v>1.04119783322499</v>
+        <v>1.040638279271445</v>
       </c>
       <c r="L22">
-        <v>1.02794909546123</v>
+        <v>1.028024700698972</v>
       </c>
       <c r="M22">
-        <v>1.042586224329354</v>
+        <v>1.042262434328773</v>
       </c>
       <c r="N22">
-        <v>1.013212301972161</v>
+        <v>1.015892449723889</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042276528370755</v>
+        <v>1.042020270879063</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040268734891245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03988852760594</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022884529260602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003800554442808</v>
+        <v>1.003659118387567</v>
       </c>
       <c r="D23">
-        <v>1.027410633303853</v>
+        <v>1.026637422877303</v>
       </c>
       <c r="E23">
-        <v>1.014288474474524</v>
+        <v>1.014148711401098</v>
       </c>
       <c r="F23">
-        <v>1.028829567235663</v>
+        <v>1.028340202629833</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051634167746235</v>
+        <v>1.051304504419304</v>
       </c>
       <c r="J23">
-        <v>1.033719815749108</v>
+        <v>1.033584367107258</v>
       </c>
       <c r="K23">
-        <v>1.042157252325406</v>
+        <v>1.041397998121445</v>
       </c>
       <c r="L23">
-        <v>1.029275707604988</v>
+        <v>1.029138551026549</v>
       </c>
       <c r="M23">
-        <v>1.043550645819765</v>
+        <v>1.043070079300698</v>
       </c>
       <c r="N23">
-        <v>1.013638790208289</v>
+        <v>1.015964978097072</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043039801041543</v>
+        <v>1.042659466097254</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040937519534992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040415174163803</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023048984819958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011108362746247</v>
+        <v>1.010210249101199</v>
       </c>
       <c r="D24">
-        <v>1.03239571283061</v>
+        <v>1.030909025455623</v>
       </c>
       <c r="E24">
-        <v>1.020740318885682</v>
+        <v>1.019850962956881</v>
       </c>
       <c r="F24">
-        <v>1.033833188482155</v>
+        <v>1.032786854887416</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.054129805354997</v>
+        <v>1.05334299375924</v>
       </c>
       <c r="J24">
-        <v>1.038185410392517</v>
+        <v>1.037320850800675</v>
       </c>
       <c r="K24">
-        <v>1.045876844486432</v>
+        <v>1.044414248232165</v>
       </c>
       <c r="L24">
-        <v>1.034412744523052</v>
+        <v>1.033538216453873</v>
       </c>
       <c r="M24">
-        <v>1.047291111019069</v>
+        <v>1.04626166304968</v>
       </c>
       <c r="N24">
-        <v>1.015299914804974</v>
+        <v>1.016481762805461</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046000112071483</v>
+        <v>1.045185378729536</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043559969197437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042539570835327</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023725700415598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019259853214785</v>
+        <v>1.017765894826492</v>
       </c>
       <c r="D25">
-        <v>1.037979830199864</v>
+        <v>1.035884416744699</v>
       </c>
       <c r="E25">
-        <v>1.027964654912644</v>
+        <v>1.026482010949178</v>
       </c>
       <c r="F25">
-        <v>1.039457016871083</v>
+        <v>1.037945833040731</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056872469501974</v>
+        <v>1.05570544293845</v>
       </c>
       <c r="J25">
-        <v>1.043155987720391</v>
+        <v>1.041709809310619</v>
       </c>
       <c r="K25">
-        <v>1.050015839167154</v>
+        <v>1.047950089728751</v>
       </c>
       <c r="L25">
-        <v>1.040143829406328</v>
+        <v>1.038682680620778</v>
       </c>
       <c r="M25">
-        <v>1.051472204644387</v>
+        <v>1.049982322085475</v>
       </c>
       <c r="N25">
-        <v>1.017146090710169</v>
+        <v>1.017682876469861</v>
       </c>
       <c r="O25">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04930913492712</v>
+        <v>1.048130006022513</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.046483553765138</v>
+        <v>1.045036389031375</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024553624103661</v>
       </c>
     </row>
   </sheetData>
